--- a/frtaltfit.xlsx
+++ b/frtaltfit.xlsx
@@ -60,19 +60,19 @@
     <t xml:space="preserve">=~</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_4</t>
+    <t xml:space="preserve">security_freedom_5</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_5</t>
+    <t xml:space="preserve">security_freedom_6</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_6</t>
+    <t xml:space="preserve">security_freedom_7</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -444,15 +444,15 @@
     <t xml:space="preserve">est.std</t>
   </si>
   <si>
-    <t xml:space="preserve">cov.security_freedom_4</t>
-  </si>
-  <si>
     <t xml:space="preserve">cov.security_freedom_5</t>
   </si>
   <si>
     <t xml:space="preserve">cov.security_freedom_6</t>
   </si>
   <si>
+    <t xml:space="preserve">cov.security_freedom_7</t>
+  </si>
+  <si>
     <t xml:space="preserve">cov.nar5_end</t>
   </si>
   <si>
@@ -504,58 +504,58 @@
     <t xml:space="preserve">mean</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15088778138309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12721919433225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21597662731929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98520701342033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81656800792223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65976317386323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66568039429007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40236694352291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44674562926213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94378693195606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60059180552977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90828387505755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93195254774063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0207099835722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14792868687424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8461535450251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63609432011422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4230770937773</t>
+    <t xml:space="preserve">5.12721932145223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21597671466024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45858038269932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98520706470586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81656809713547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65976320485293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66568057499809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40236746736416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44674637343413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94378773255594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60059232836808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90828406639773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9319526842808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02071012438309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14792919980826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84615407496911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63609488411261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42307657095103</t>
   </si>
   <si>
     <t xml:space="preserve">0.5</t>
@@ -567,58 +567,58 @@
     <t xml:space="preserve">raw</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.000000207418596076536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000259421004678018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000295958341389735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0000000871713905503668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0000000394150498905788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000139746234140148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0000000790827154872886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0000000796175800843457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0000000671319515532787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0000000502924586420761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0000000895534348899218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000148611092321005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000114981266285952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0000000755994014056682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00000030720860300093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000301128746826862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000354441993977161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000170700373391952</t>
+    <t xml:space="preserve">-0.000000386540986774264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000383299289197225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000501042513256778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000358858556204211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000049798195789208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000001087565371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000101625308168707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000603458829573356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000811303952907849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000750307416641505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000612391753307406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0000000427290922644374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0000000215589031071772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0000000652114922061742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000205725416702052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000228815261404947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000209556398456101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000352125893332556</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -633,13 +633,13 @@
     <t xml:space="preserve">fmin</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320553132014929</t>
+    <t xml:space="preserve">0.298935518546729</t>
   </si>
   <si>
     <t xml:space="preserve">chisq</t>
   </si>
   <si>
-    <t xml:space="preserve">216.693917242092</t>
+    <t xml:space="preserve">202.080410537589</t>
   </si>
   <si>
     <t xml:space="preserve">df</t>
@@ -648,13 +648,13 @@
     <t xml:space="preserve">135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0000102631547310716</t>
+    <t xml:space="preserve">0.000164102084536544</t>
   </si>
   <si>
     <t xml:space="preserve">baseline.chisq</t>
   </si>
   <si>
-    <t xml:space="preserve">3084.47914197149</t>
+    <t xml:space="preserve">3223.19768125333</t>
   </si>
   <si>
     <t xml:space="preserve">baseline.df</t>
@@ -669,25 +669,25 @@
     <t xml:space="preserve">cfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971960013008086</t>
+    <t xml:space="preserve">0.978022258862983</t>
   </si>
   <si>
     <t xml:space="preserve">tli</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964482683143576</t>
+    <t xml:space="preserve">0.972161527893112</t>
   </si>
   <si>
     <t xml:space="preserve">cfi.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971960013008087</t>
+    <t xml:space="preserve">0.978022258862981</t>
   </si>
   <si>
     <t xml:space="preserve">tli.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964482683143577</t>
+    <t xml:space="preserve">0.97216152789311</t>
   </si>
   <si>
     <t xml:space="preserve">nnfi</t>
@@ -696,25 +696,25 @@
     <t xml:space="preserve">rfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.911012864990701</t>
+    <t xml:space="preserve">0.920585534823683</t>
   </si>
   <si>
     <t xml:space="preserve">nfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.929746998676869</t>
+    <t xml:space="preserve">0.937304369597644</t>
   </si>
   <si>
     <t xml:space="preserve">pnfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.734010788429107</t>
+    <t xml:space="preserve">0.739977133892877</t>
   </si>
   <si>
     <t xml:space="preserve">ifi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972302256327371</t>
+    <t xml:space="preserve">0.978278459651467</t>
   </si>
   <si>
     <t xml:space="preserve">rni</t>
@@ -729,25 +729,25 @@
     <t xml:space="preserve">logl</t>
   </si>
   <si>
-    <t xml:space="preserve">-10030.1629929512</t>
+    <t xml:space="preserve">-9950.70044198337</t>
   </si>
   <si>
     <t xml:space="preserve">unrestricted.logl</t>
   </si>
   <si>
-    <t xml:space="preserve">-9921.81603433015</t>
+    <t xml:space="preserve">-9849.66023671458</t>
   </si>
   <si>
     <t xml:space="preserve">aic</t>
   </si>
   <si>
-    <t xml:space="preserve">20204.3259859024</t>
+    <t xml:space="preserve">20045.4008839667</t>
   </si>
   <si>
     <t xml:space="preserve">bic</t>
   </si>
   <si>
-    <t xml:space="preserve">20479.5852903772</t>
+    <t xml:space="preserve">20320.6601884415</t>
   </si>
   <si>
     <t xml:space="preserve">ntotal</t>
@@ -759,25 +759,25 @@
     <t xml:space="preserve">bic2</t>
   </si>
   <si>
-    <t xml:space="preserve">20251.1901945853</t>
+    <t xml:space="preserve">20092.2650926496</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0423125915946218</t>
+    <t xml:space="preserve">0.0383418109533656</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.lower</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0315508155900259</t>
+    <t xml:space="preserve">0.0268332102397929</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.upper</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0525247516048245</t>
+    <t xml:space="preserve">0.0489384045700343</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.level</t>
@@ -789,7 +789,7 @@
     <t xml:space="preserve">rmsea.pvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888549789573135</t>
+    <t xml:space="preserve">0.965690607883449</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.close.h0</t>
@@ -801,7 +801,7 @@
     <t xml:space="preserve">rmsea.notclose.pvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0000000000225609276757076</t>
+    <t xml:space="preserve">0.000000000000390122292497759</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.notclose.h0</t>
@@ -813,49 +813,49 @@
     <t xml:space="preserve">rmsea.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0423125915946213</t>
+    <t xml:space="preserve">0.0383418109533673</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.lower.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0315508155900254</t>
+    <t xml:space="preserve">0.026833210239795</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.upper.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0525247516048239</t>
+    <t xml:space="preserve">0.0489384045700358</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.pvalue.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888549789573153</t>
+    <t xml:space="preserve">0.965690607883431</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.notclose.pvalue.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0000000000225609276756935</t>
+    <t xml:space="preserve">0.000000000000390122292498331</t>
   </si>
   <si>
     <t xml:space="preserve">rmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136033711689315</t>
+    <t xml:space="preserve">0.13354549447159</t>
   </si>
   <si>
     <t xml:space="preserve">rmr_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142673360469169</t>
+    <t xml:space="preserve">0.140063696235009</t>
   </si>
   <si>
     <t xml:space="preserve">srmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0492785146357448</t>
+    <t xml:space="preserve">0.0485874156810295</t>
   </si>
   <si>
     <t xml:space="preserve">srmr_bentler</t>
@@ -864,73 +864,73 @@
     <t xml:space="preserve">srmr_bentler_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.051683742174634</t>
+    <t xml:space="preserve">0.0509589114759377</t>
   </si>
   <si>
     <t xml:space="preserve">crmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0516845657398451</t>
+    <t xml:space="preserve">0.0509641036995507</t>
   </si>
   <si>
     <t xml:space="preserve">crmr_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0544803158715203</t>
+    <t xml:space="preserve">0.0537208821998149</t>
   </si>
   <si>
     <t xml:space="preserve">srmr_mplus</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0492833793551708</t>
+    <t xml:space="preserve">0.0485957652167829</t>
   </si>
   <si>
     <t xml:space="preserve">srmr_mplus_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0516860129995178</t>
+    <t xml:space="preserve">0.0509652669157436</t>
   </si>
   <si>
     <t xml:space="preserve">cn_05</t>
   </si>
   <si>
-    <t xml:space="preserve">255.42911720835</t>
+    <t xml:space="preserve">273.828236649239</t>
   </si>
   <si>
     <t xml:space="preserve">cn_01</t>
   </si>
   <si>
-    <t xml:space="preserve">275.741204225494</t>
+    <t xml:space="preserve">295.609198452504</t>
   </si>
   <si>
     <t xml:space="preserve">gfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991161006447701</t>
+    <t xml:space="preserve">0.991725661180326</t>
   </si>
   <si>
     <t xml:space="preserve">agfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986315928500515</t>
+    <t xml:space="preserve">0.987190097679172</t>
   </si>
   <si>
     <t xml:space="preserve">pgfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640223616604974</t>
+    <t xml:space="preserve">0.640588345738488</t>
   </si>
   <si>
     <t xml:space="preserve">mfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886167769681448</t>
+    <t xml:space="preserve">0.905533164656903</t>
   </si>
   <si>
     <t xml:space="preserve">ecvi</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06714176698844</t>
+    <t xml:space="preserve">1.02390654005204</t>
   </si>
 </sst>
 </file>
@@ -1345,22 +1345,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.17555540784264</v>
+        <v>1.11251205144084</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0690928048822904</v>
+        <v>0.0495796858912825</v>
       </c>
       <c r="H3" t="n">
-        <v>17.0141508923449</v>
+        <v>22.4388684890086</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.05255660695554</v>
+        <v>1.02609303004283</v>
       </c>
       <c r="K3" t="n">
-        <v>1.32494997918713</v>
+        <v>1.22201524694004</v>
       </c>
     </row>
     <row r="4">
@@ -1380,22 +1380,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.14727949884421</v>
+        <v>0.993495797937255</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0815357618715625</v>
+        <v>0.0524559188661211</v>
       </c>
       <c r="H4" t="n">
-        <v>14.0708748224054</v>
+        <v>18.9396319693279</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.00692327794945</v>
+        <v>0.891837682246896</v>
       </c>
       <c r="K4" t="n">
-        <v>1.32460764052856</v>
+        <v>1.09829700670174</v>
       </c>
     </row>
     <row r="5">
@@ -1446,22 +1446,22 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.775773446420394</v>
+        <v>0.772356898616578</v>
       </c>
       <c r="G6" t="n">
-        <v>0.107815573196163</v>
+        <v>0.107183306040549</v>
       </c>
       <c r="H6" t="n">
-        <v>7.19537468867257</v>
+        <v>7.20594397717482</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000000000000622835116814713</v>
+        <v>0.000000000000576427794385381</v>
       </c>
       <c r="J6" t="n">
-        <v>0.581007209822554</v>
+        <v>0.577331769267667</v>
       </c>
       <c r="K6" t="n">
-        <v>1.00416008832161</v>
+        <v>0.996880925000093</v>
       </c>
     </row>
     <row r="7">
@@ -1481,22 +1481,22 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.728068499482428</v>
+        <v>0.727733771712445</v>
       </c>
       <c r="G7" t="n">
-        <v>0.119286452453199</v>
+        <v>0.11981374915748</v>
       </c>
       <c r="H7" t="n">
-        <v>6.10353048908113</v>
+        <v>6.07387530087159</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0000000010375076353597</v>
+        <v>0.00000000124859700356694</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5057695720867</v>
+        <v>0.503699270214325</v>
       </c>
       <c r="K7" t="n">
-        <v>0.970758119491669</v>
+        <v>0.97008600468774</v>
       </c>
     </row>
     <row r="8">
@@ -1516,22 +1516,22 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.554315208183281</v>
+        <v>0.552375613996722</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0937183571984745</v>
+        <v>0.0937333650978451</v>
       </c>
       <c r="H8" t="n">
-        <v>5.91469189978827</v>
+        <v>5.8930522063314</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00000000332497385180375</v>
+        <v>0.00000000379126552374487</v>
       </c>
       <c r="J8" t="n">
-        <v>0.376365790257588</v>
+        <v>0.372164307636566</v>
       </c>
       <c r="K8" t="n">
-        <v>0.744055178857511</v>
+        <v>0.741852232498021</v>
       </c>
     </row>
     <row r="9">
@@ -1582,22 +1582,22 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.90230585307444</v>
+        <v>1.9072276244629</v>
       </c>
       <c r="G10" t="n">
-        <v>0.414728962020556</v>
+        <v>0.404704203141881</v>
       </c>
       <c r="H10" t="n">
-        <v>4.58686522350988</v>
+        <v>4.71264595142905</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00000449950941017185</v>
+        <v>0.00000244520826986339</v>
       </c>
       <c r="J10" t="n">
-        <v>1.36482592160265</v>
+        <v>1.37444683888151</v>
       </c>
       <c r="K10" t="n">
-        <v>2.94252837033758</v>
+        <v>2.91527107531965</v>
       </c>
     </row>
     <row r="11">
@@ -1617,22 +1617,22 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.54695690686234</v>
+        <v>1.54909094495853</v>
       </c>
       <c r="G11" t="n">
-        <v>0.251102695358148</v>
+        <v>0.24892063700473</v>
       </c>
       <c r="H11" t="n">
-        <v>6.160654327728</v>
+        <v>6.22323228639777</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000000000724449833455765</v>
+        <v>0.000000000487015539007984</v>
       </c>
       <c r="J11" t="n">
-        <v>1.14628050000774</v>
+        <v>1.15440624877217</v>
       </c>
       <c r="K11" t="n">
-        <v>2.12262011386413</v>
+        <v>2.1189529357903</v>
       </c>
     </row>
     <row r="12">
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.08637378654815</v>
+        <v>1.09237107290098</v>
       </c>
       <c r="G12" t="n">
-        <v>0.20543872615106</v>
+        <v>0.20577421883095</v>
       </c>
       <c r="H12" t="n">
-        <v>5.28806718626819</v>
+        <v>5.30859054699364</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000000123615577329872</v>
+        <v>0.000000110476199299825</v>
       </c>
       <c r="J12" t="n">
-        <v>0.752450181456983</v>
+        <v>0.75987532770408</v>
       </c>
       <c r="K12" t="n">
-        <v>1.56853251681417</v>
+        <v>1.58016667375194</v>
       </c>
     </row>
     <row r="13">
@@ -1718,22 +1718,22 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.12008016376912</v>
+        <v>1.120052640164</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0468186623366136</v>
+        <v>0.0468270125449344</v>
       </c>
       <c r="H14" t="n">
-        <v>23.9237967910328</v>
+        <v>23.9189429197351</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03428823571074</v>
+        <v>1.03419121847546</v>
       </c>
       <c r="K14" t="n">
-        <v>1.21719273522503</v>
+        <v>1.21715813027464</v>
       </c>
     </row>
     <row r="15">
@@ -1753,22 +1753,22 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.11323224936984</v>
+        <v>1.11321893873265</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0456734136800821</v>
+        <v>0.0456613837307196</v>
       </c>
       <c r="H15" t="n">
-        <v>24.3737474314366</v>
+        <v>24.3798774320479</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.02815375654228</v>
+        <v>1.02815197419813</v>
       </c>
       <c r="K15" t="n">
-        <v>1.21026120849579</v>
+        <v>1.21028813285932</v>
       </c>
     </row>
     <row r="16">
@@ -1819,22 +1819,22 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.25190502416656</v>
+        <v>1.25368486573263</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0727812292187416</v>
+        <v>0.0731603118988607</v>
       </c>
       <c r="H17" t="n">
-        <v>17.2009326801009</v>
+        <v>17.1361334197942</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.1249170469492</v>
+        <v>1.12646957264515</v>
       </c>
       <c r="K17" t="n">
-        <v>1.41711270029014</v>
+        <v>1.42006618655808</v>
       </c>
     </row>
     <row r="18">
@@ -1854,22 +1854,22 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.04665326293666</v>
+        <v>1.04663394152759</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0661839649109325</v>
+        <v>0.0661723281824336</v>
       </c>
       <c r="H18" t="n">
-        <v>15.8143028201046</v>
+        <v>15.8167918565911</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.92783198760565</v>
+        <v>0.927650849770278</v>
       </c>
       <c r="K18" t="n">
-        <v>1.18644044563209</v>
+        <v>1.1864138433572</v>
       </c>
     </row>
     <row r="19">
@@ -1889,22 +1889,22 @@
         <v>54</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4960190210758</v>
+        <v>-0.505826336633056</v>
       </c>
       <c r="G19" t="n">
-        <v>0.176737173102874</v>
+        <v>0.177635205271599</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.80653476779942</v>
+        <v>-2.8475567996764</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00500775080680382</v>
+        <v>0.00440562316126236</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.876867992408917</v>
+        <v>-0.884597737765504</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.17356117582967</v>
+        <v>-0.179196804894895</v>
       </c>
     </row>
     <row r="20">
@@ -1924,22 +1924,22 @@
         <v>56</v>
       </c>
       <c r="F20" t="n">
-        <v>0.581594054199833</v>
+        <v>0.584598683459147</v>
       </c>
       <c r="G20" t="n">
-        <v>0.103433315913063</v>
+        <v>0.104588353647428</v>
       </c>
       <c r="H20" t="n">
-        <v>5.62288899921443</v>
+        <v>5.58951989463239</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0000000187790074601679</v>
+        <v>0.0000000227698280230726</v>
       </c>
       <c r="J20" t="n">
-        <v>0.390503715998691</v>
+        <v>0.389920494290779</v>
       </c>
       <c r="K20" t="n">
-        <v>0.801334580973915</v>
+        <v>0.806010371714364</v>
       </c>
     </row>
     <row r="21">
@@ -1959,22 +1959,22 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.193150828906951</v>
+        <v>-0.200708286497442</v>
       </c>
       <c r="G21" t="n">
-        <v>0.178994048946025</v>
+        <v>0.179021836119886</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.07909078566737</v>
+        <v>-1.1211385764306</v>
       </c>
       <c r="I21" t="n">
-        <v>0.280547258477358</v>
+        <v>0.262228880400671</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.558099617443516</v>
+        <v>-0.562991654491658</v>
       </c>
       <c r="K21" t="n">
-        <v>0.151024231452707</v>
+        <v>0.14343809487611</v>
       </c>
     </row>
     <row r="22">
@@ -1994,22 +1994,22 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0233375036956369</v>
+        <v>0.0343285454654713</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0891098200793023</v>
+        <v>0.0803937851087396</v>
       </c>
       <c r="H22" t="n">
-        <v>0.261895980430305</v>
+        <v>0.427004965856987</v>
       </c>
       <c r="I22" t="n">
-        <v>0.793401638644935</v>
+        <v>0.669375710751446</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.153742078621816</v>
+        <v>-0.12578257597159</v>
       </c>
       <c r="K22" t="n">
-        <v>0.199104020354047</v>
+        <v>0.189200166256701</v>
       </c>
     </row>
     <row r="23">
@@ -2029,22 +2029,22 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.171453849542026</v>
+        <v>-0.17139725684574</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0866408760328075</v>
+        <v>0.0865586677263502</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.97890253876361</v>
+        <v>-1.98012817604358</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0478269803790459</v>
+        <v>0.0476891278448277</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.339822980977373</v>
+        <v>-0.33920740436083</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0033239119028125</v>
+        <v>-0.0037502850666922</v>
       </c>
     </row>
     <row r="24">
@@ -2064,22 +2064,22 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0290015842735544</v>
+        <v>0.0295686334042608</v>
       </c>
       <c r="G24" t="n">
-        <v>0.122554928300046</v>
+        <v>0.122788393613574</v>
       </c>
       <c r="H24" t="n">
-        <v>0.236641518018362</v>
+        <v>0.240809676990448</v>
       </c>
       <c r="I24" t="n">
-        <v>0.812934908124276</v>
+        <v>0.80970262914726</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.224779886867543</v>
+        <v>-0.225592139203047</v>
       </c>
       <c r="K24" t="n">
-        <v>0.261464252491543</v>
+        <v>0.260604081862324</v>
       </c>
     </row>
     <row r="25">
@@ -2099,22 +2099,22 @@
         <v>63</v>
       </c>
       <c r="F25" t="n">
-        <v>0.216686871691527</v>
+        <v>0.206971205523945</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0529744243187994</v>
+        <v>0.0462113654153584</v>
       </c>
       <c r="H25" t="n">
-        <v>4.09040540747566</v>
+        <v>4.47879441915728</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0000430619814257849</v>
+        <v>0.00000750657834025503</v>
       </c>
       <c r="J25" t="n">
-        <v>0.120414589427632</v>
+        <v>0.120421554663132</v>
       </c>
       <c r="K25" t="n">
-        <v>0.326777946417844</v>
+        <v>0.302299907547369</v>
       </c>
     </row>
     <row r="26">
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0647761417729034</v>
+        <v>-0.0684140841336949</v>
       </c>
       <c r="G26" t="n">
-        <v>0.108183260749175</v>
+        <v>0.106298004479012</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.598763074105229</v>
+        <v>-0.643606476612669</v>
       </c>
       <c r="I26" t="n">
-        <v>0.549330889543016</v>
+        <v>0.519830649379193</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.290440615613547</v>
+        <v>-0.288922093900061</v>
       </c>
       <c r="K26" t="n">
-        <v>0.13290391564366</v>
+        <v>0.12618338306122</v>
       </c>
     </row>
     <row r="27">
@@ -2169,22 +2169,22 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.082330844819043</v>
+        <v>0.0838959457008078</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0545462984570861</v>
+        <v>0.0540282521673386</v>
       </c>
       <c r="H27" t="n">
-        <v>1.50937546905802</v>
+        <v>1.55281620884129</v>
       </c>
       <c r="I27" t="n">
-        <v>0.131202858332788</v>
+        <v>0.120467049215474</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.0171843863624315</v>
+        <v>-0.0138513327791798</v>
       </c>
       <c r="K27" t="n">
-        <v>0.19734872863137</v>
+        <v>0.198853587316976</v>
       </c>
     </row>
     <row r="28">
@@ -2204,22 +2204,22 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0521007045839898</v>
+        <v>0.0434126190039429</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0649963681464651</v>
+        <v>0.0643936107268384</v>
       </c>
       <c r="H28" t="n">
-        <v>0.801594090097223</v>
+        <v>0.67417587729475</v>
       </c>
       <c r="I28" t="n">
-        <v>0.422787797349853</v>
+        <v>0.500199504023572</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0732410952081034</v>
+        <v>-0.0799266911028493</v>
       </c>
       <c r="K28" t="n">
-        <v>0.181940350598247</v>
+        <v>0.173558263837985</v>
       </c>
     </row>
     <row r="29">
@@ -2239,22 +2239,22 @@
         <v>68</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.281239041682006</v>
+        <v>-0.264281929109584</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0808117657849724</v>
+        <v>0.0712538594487674</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.48017443933027</v>
+        <v>-3.70901914863442</v>
       </c>
       <c r="I29" t="n">
-        <v>0.000501087410697876</v>
+        <v>0.000208063694064009</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.443727652322998</v>
+        <v>-0.409360368083379</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.131283878039361</v>
+        <v>-0.133456309440774</v>
       </c>
     </row>
     <row r="30">
@@ -2274,22 +2274,22 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.173750401309598</v>
+        <v>0.175612882908921</v>
       </c>
       <c r="G30" t="n">
-        <v>0.167511012651489</v>
+        <v>0.166801625092315</v>
       </c>
       <c r="H30" t="n">
-        <v>1.03724763261441</v>
+        <v>1.05282477201124</v>
       </c>
       <c r="I30" t="n">
-        <v>0.299620464353677</v>
+        <v>0.292421309320954</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.15165820819756</v>
+        <v>-0.146722846675283</v>
       </c>
       <c r="K30" t="n">
-        <v>0.504235149524073</v>
+        <v>0.508870810890432</v>
       </c>
     </row>
     <row r="31">
@@ -2309,22 +2309,22 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.310386888594118</v>
+        <v>0.308161800562256</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0755683015193988</v>
+        <v>0.0753657641752919</v>
       </c>
       <c r="H31" t="n">
-        <v>4.10736886172358</v>
+        <v>4.08888311469261</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0000400191855860488</v>
+        <v>0.0000433455185999687</v>
       </c>
       <c r="J31" t="n">
-        <v>0.156837302151174</v>
+        <v>0.153374090650729</v>
       </c>
       <c r="K31" t="n">
-        <v>0.453571995679373</v>
+        <v>0.44828877239402</v>
       </c>
     </row>
     <row r="32">
@@ -2344,22 +2344,22 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.413387206222886</v>
+        <v>0.42748789586383</v>
       </c>
       <c r="G32" t="n">
-        <v>0.110025752804334</v>
+        <v>0.109251746130514</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7571858922705</v>
+        <v>3.91287014628715</v>
       </c>
       <c r="I32" t="n">
-        <v>0.000171834851040886</v>
+        <v>0.0000912055847308579</v>
       </c>
       <c r="J32" t="n">
-        <v>0.217829285506535</v>
+        <v>0.234935570992372</v>
       </c>
       <c r="K32" t="n">
-        <v>0.645312584035476</v>
+        <v>0.65673209003937</v>
       </c>
     </row>
     <row r="33">
@@ -2379,22 +2379,22 @@
         <v>73</v>
       </c>
       <c r="F33" t="n">
-        <v>0.58919988958737</v>
+        <v>0.634013110490881</v>
       </c>
       <c r="G33" t="n">
-        <v>0.156040205468882</v>
+        <v>0.171679831213978</v>
       </c>
       <c r="H33" t="n">
-        <v>3.77594920371256</v>
+        <v>3.69299705159112</v>
       </c>
       <c r="I33" t="n">
-        <v>0.000159399475757382</v>
+        <v>0.000221626593615465</v>
       </c>
       <c r="J33" t="n">
-        <v>0.279180568952908</v>
+        <v>0.292517609097496</v>
       </c>
       <c r="K33" t="n">
-        <v>0.890669018133718</v>
+        <v>0.958231890258944</v>
       </c>
     </row>
     <row r="34">
@@ -2414,22 +2414,22 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.00375521306000064</v>
+        <v>-0.0123663743180166</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0719888399358757</v>
+        <v>0.0773373810199927</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.0521638223833807</v>
+        <v>-0.159901643356914</v>
       </c>
       <c r="I34" t="n">
-        <v>0.958398159223941</v>
+        <v>0.872958553966383</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.143499177696966</v>
+        <v>-0.168027745331748</v>
       </c>
       <c r="K34" t="n">
-        <v>0.139999541299541</v>
+        <v>0.13714352445897</v>
       </c>
     </row>
     <row r="35">
@@ -2449,22 +2449,22 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.354093149514101</v>
+        <v>-0.328111690661622</v>
       </c>
       <c r="G35" t="n">
-        <v>0.103870818543935</v>
+        <v>0.107305556483022</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.40897621177722</v>
+        <v>-3.05773252956884</v>
       </c>
       <c r="I35" t="n">
-        <v>0.000652071654900555</v>
+        <v>0.00223018538263653</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.567589686926345</v>
+        <v>-0.543323497907603</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.160140026230904</v>
+        <v>-0.121697846271781</v>
       </c>
     </row>
     <row r="36">
@@ -2484,22 +2484,22 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.191988099563681</v>
+        <v>-0.179960681329402</v>
       </c>
       <c r="G36" t="n">
-        <v>0.111779506293505</v>
+        <v>0.10951256514493</v>
       </c>
       <c r="H36" t="n">
-        <v>-1.7175608117249</v>
+        <v>-1.64328797422689</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0858767534317968</v>
+        <v>0.100323365258327</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.423778155467171</v>
+        <v>-0.411426762045539</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0142240551245688</v>
+        <v>0.0231793096249179</v>
       </c>
     </row>
     <row r="37">
@@ -2519,22 +2519,22 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.07756366629089</v>
+        <v>0.980766495694937</v>
       </c>
       <c r="G37" t="n">
-        <v>0.195873452856841</v>
+        <v>0.184786158338487</v>
       </c>
       <c r="H37" t="n">
-        <v>5.50132573135601</v>
+        <v>5.30757554848016</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0000000376946074354123</v>
+        <v>0.000000111092965493498</v>
       </c>
       <c r="J37" t="n">
-        <v>0.699845816012249</v>
+        <v>0.638126302820856</v>
       </c>
       <c r="K37" t="n">
-        <v>1.45794769108721</v>
+        <v>1.36639897521983</v>
       </c>
     </row>
     <row r="38">
@@ -2554,22 +2554,22 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.63599798042764</v>
+        <v>0.374536587957197</v>
       </c>
       <c r="G38" t="n">
-        <v>0.183081498387447</v>
+        <v>0.150601222333698</v>
       </c>
       <c r="H38" t="n">
-        <v>3.47385173285892</v>
+        <v>2.48694255035532</v>
       </c>
       <c r="I38" t="n">
-        <v>0.000513044445042965</v>
+        <v>0.012884620394735</v>
       </c>
       <c r="J38" t="n">
-        <v>0.295885191867921</v>
+        <v>0.0996650768190555</v>
       </c>
       <c r="K38" t="n">
-        <v>1.00808566769175</v>
+        <v>0.699277166718733</v>
       </c>
     </row>
     <row r="39">
@@ -2589,22 +2589,22 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.758357335995926</v>
+        <v>0.617854884080763</v>
       </c>
       <c r="G39" t="n">
-        <v>0.157227455028337</v>
+        <v>0.139140372138482</v>
       </c>
       <c r="H39" t="n">
-        <v>4.82331368818026</v>
+        <v>4.44051481669053</v>
       </c>
       <c r="I39" t="n">
-        <v>0.00000141192651992306</v>
+        <v>0.00000897439252445231</v>
       </c>
       <c r="J39" t="n">
-        <v>0.468469931270758</v>
+        <v>0.35633436783136</v>
       </c>
       <c r="K39" t="n">
-        <v>1.08573776146524</v>
+        <v>0.90306203709515</v>
       </c>
     </row>
     <row r="40">
@@ -2624,22 +2624,22 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.30512168328896</v>
+        <v>1.2987039217453</v>
       </c>
       <c r="G40" t="n">
-        <v>0.243958762478681</v>
+        <v>0.244204669368336</v>
       </c>
       <c r="H40" t="n">
-        <v>5.34976350112866</v>
+        <v>5.31809618998914</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0000000880692450078158</v>
+        <v>0.000000104858633331872</v>
       </c>
       <c r="J40" t="n">
-        <v>0.798530531168849</v>
+        <v>0.779497985548765</v>
       </c>
       <c r="K40" t="n">
-        <v>1.75710444049547</v>
+        <v>1.75365019163445</v>
       </c>
     </row>
     <row r="41">
@@ -2659,22 +2659,22 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.48161979146957</v>
+        <v>1.48777479161563</v>
       </c>
       <c r="G41" t="n">
-        <v>0.195945298710305</v>
+        <v>0.195363959729062</v>
       </c>
       <c r="H41" t="n">
-        <v>7.5613949465563</v>
+        <v>7.61540047447303</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0000000000000399680288865056</v>
+        <v>0.0000000000000262012633811537</v>
       </c>
       <c r="J41" t="n">
-        <v>1.09606888039363</v>
+        <v>1.10276121485797</v>
       </c>
       <c r="K41" t="n">
-        <v>1.86250766459756</v>
+        <v>1.87125384157319</v>
       </c>
     </row>
     <row r="42">
@@ -2694,22 +2694,22 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>2.24789440433089</v>
+        <v>2.24541731781326</v>
       </c>
       <c r="G42" t="n">
-        <v>0.266984385792971</v>
+        <v>0.268419056022991</v>
       </c>
       <c r="H42" t="n">
-        <v>8.41957254411869</v>
+        <v>8.36534242792709</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.73384953248239</v>
+        <v>1.72996759528459</v>
       </c>
       <c r="K42" t="n">
-        <v>2.75708763096952</v>
+        <v>2.75637277043354</v>
       </c>
     </row>
     <row r="43">
@@ -2729,22 +2729,22 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.81434800501868</v>
+        <v>1.81644078305491</v>
       </c>
       <c r="G43" t="n">
-        <v>0.184079060436052</v>
+        <v>0.184467540062382</v>
       </c>
       <c r="H43" t="n">
-        <v>9.85635194313142</v>
+        <v>9.84693991387665</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.44941817225873</v>
+        <v>1.4498292153298</v>
       </c>
       <c r="K43" t="n">
-        <v>2.16694680496041</v>
+        <v>2.17304668330413</v>
       </c>
     </row>
     <row r="44">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2.1149836175639</v>
+        <v>2.11805341256979</v>
       </c>
       <c r="G44" t="n">
-        <v>0.221971183398607</v>
+        <v>0.220009382037732</v>
       </c>
       <c r="H44" t="n">
-        <v>9.52819003431586</v>
+        <v>9.62710495776284</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.65130202175826</v>
+        <v>1.662475797861</v>
       </c>
       <c r="K44" t="n">
-        <v>2.52824074586062</v>
+        <v>2.52687650990223</v>
       </c>
     </row>
     <row r="45">
@@ -2799,22 +2799,22 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1.49226835207081</v>
+        <v>1.49142486768811</v>
       </c>
       <c r="G45" t="n">
-        <v>0.387775541232665</v>
+        <v>0.375014067106811</v>
       </c>
       <c r="H45" t="n">
-        <v>3.84827869062388</v>
+        <v>3.97698379475277</v>
       </c>
       <c r="I45" t="n">
-        <v>0.000118950687975072</v>
+        <v>0.0000697949194061742</v>
       </c>
       <c r="J45" t="n">
-        <v>0.6073262940029</v>
+        <v>0.663486679040507</v>
       </c>
       <c r="K45" t="n">
-        <v>2.13380876549268</v>
+        <v>2.12095955263689</v>
       </c>
     </row>
     <row r="46">
@@ -2834,22 +2834,22 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.23087563072778</v>
+        <v>2.23400794277696</v>
       </c>
       <c r="G46" t="n">
-        <v>0.304528810716155</v>
+        <v>0.298328555163569</v>
       </c>
       <c r="H46" t="n">
-        <v>7.32566362270114</v>
+        <v>7.48841471629185</v>
       </c>
       <c r="I46" t="n">
-        <v>0.000000000000237809771874709</v>
+        <v>0.0000000000000697220059464598</v>
       </c>
       <c r="J46" t="n">
-        <v>1.65608199109267</v>
+        <v>1.67286010152012</v>
       </c>
       <c r="K46" t="n">
-        <v>2.85599955953668</v>
+        <v>2.84727155842547</v>
       </c>
     </row>
     <row r="47">
@@ -2869,22 +2869,22 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>2.05817652926192</v>
+        <v>2.05347711045465</v>
       </c>
       <c r="G47" t="n">
-        <v>0.218293242190959</v>
+        <v>0.21743032135268</v>
       </c>
       <c r="H47" t="n">
-        <v>9.42849402301452</v>
+        <v>9.44429966197695</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.61615146782902</v>
+        <v>1.61216708222677</v>
       </c>
       <c r="K47" t="n">
-        <v>2.48232006456945</v>
+        <v>2.47424681641737</v>
       </c>
     </row>
     <row r="48">
@@ -2904,22 +2904,22 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.587819516257875</v>
+        <v>0.587777578224089</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0806110216130599</v>
+        <v>0.0806073173967658</v>
       </c>
       <c r="H48" t="n">
-        <v>7.2920489592535</v>
+        <v>7.29186378118659</v>
       </c>
       <c r="I48" t="n">
-        <v>0.000000000000305311331771918</v>
+        <v>0.000000000000305755420981768</v>
       </c>
       <c r="J48" t="n">
-        <v>0.434158778595963</v>
+        <v>0.433695585251055</v>
       </c>
       <c r="K48" t="n">
-        <v>0.750950821704466</v>
+        <v>0.75074419744323</v>
       </c>
     </row>
     <row r="49">
@@ -2939,22 +2939,22 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.229916842171895</v>
+        <v>0.229954748171042</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0530532539892904</v>
+        <v>0.0530888439558478</v>
       </c>
       <c r="H49" t="n">
-        <v>4.33369915855315</v>
+        <v>4.33150792212179</v>
       </c>
       <c r="I49" t="n">
-        <v>0.000014662451210512</v>
+        <v>0.0000148091618203949</v>
       </c>
       <c r="J49" t="n">
-        <v>0.126744433076694</v>
+        <v>0.127418147095576</v>
       </c>
       <c r="K49" t="n">
-        <v>0.338949186856586</v>
+        <v>0.339100866675007</v>
       </c>
     </row>
     <row r="50">
@@ -2974,22 +2974,22 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.346380678502031</v>
+        <v>0.346370141583255</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0596603658533512</v>
+        <v>0.059684101041522</v>
       </c>
       <c r="H50" t="n">
-        <v>5.805875869978</v>
+        <v>5.80339044299732</v>
       </c>
       <c r="I50" t="n">
-        <v>0.00000000640303876586756</v>
+        <v>0.00000000649872222702186</v>
       </c>
       <c r="J50" t="n">
-        <v>0.23169719626054</v>
+        <v>0.23189324060973</v>
       </c>
       <c r="K50" t="n">
-        <v>0.464983697448992</v>
+        <v>0.464832113004338</v>
       </c>
     </row>
     <row r="51">
@@ -3009,22 +3009,22 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.479815744658354</v>
+        <v>0.480925827648047</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0650821866991136</v>
+        <v>0.0650671288890211</v>
       </c>
       <c r="H51" t="n">
-        <v>7.37245887076024</v>
+        <v>7.39122558286407</v>
       </c>
       <c r="I51" t="n">
-        <v>0.000000000000167421632113474</v>
+        <v>0.000000000000145439216225896</v>
       </c>
       <c r="J51" t="n">
-        <v>0.357440628243284</v>
+        <v>0.358840550725437</v>
       </c>
       <c r="K51" t="n">
-        <v>0.615870320598273</v>
+        <v>0.617249165938748</v>
       </c>
     </row>
     <row r="52">
@@ -3044,22 +3044,22 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.036006264677524</v>
+        <v>0.0341820591555128</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0431683833179599</v>
+        <v>0.0434596800908481</v>
       </c>
       <c r="H52" t="n">
-        <v>0.834088791612073</v>
+        <v>0.786523487611015</v>
       </c>
       <c r="I52" t="n">
-        <v>0.404230950695976</v>
+        <v>0.431560864364076</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.0540478487794829</v>
+        <v>-0.0560977812945122</v>
       </c>
       <c r="K52" t="n">
-        <v>0.117345029034126</v>
+        <v>0.115796034325863</v>
       </c>
     </row>
     <row r="53">
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.473350290291472</v>
+        <v>0.47459788190907</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0542553565718254</v>
+        <v>0.0545715380956575</v>
       </c>
       <c r="H53" t="n">
-        <v>8.72448952878655</v>
+        <v>8.69680237117663</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.368438475109621</v>
+        <v>0.369180450757271</v>
       </c>
       <c r="K53" t="n">
-        <v>0.582540558945301</v>
+        <v>0.583923595776151</v>
       </c>
     </row>
     <row r="54">
@@ -3114,22 +3114,22 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>2.05747193200429</v>
+        <v>2.05568339805177</v>
       </c>
       <c r="G54" t="n">
-        <v>0.168121006771879</v>
+        <v>0.169090841501001</v>
       </c>
       <c r="H54" t="n">
-        <v>12.2380419408031</v>
+        <v>12.1572722674019</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.67576325554757</v>
+        <v>1.66867144907384</v>
       </c>
       <c r="K54" t="n">
-        <v>2.33474947336084</v>
+        <v>2.33254218679955</v>
       </c>
     </row>
     <row r="55">
@@ -3149,22 +3149,22 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1.86153467478223</v>
+        <v>2.30346307184276</v>
       </c>
       <c r="G55" t="n">
-        <v>0.242941194438064</v>
+        <v>0.214889248277801</v>
       </c>
       <c r="H55" t="n">
-        <v>7.66249083070517</v>
+        <v>10.7193035031</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0000000000000182076576038526</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.38244304905824</v>
+        <v>1.8605403436972</v>
       </c>
       <c r="K55" t="n">
-        <v>2.33429136874065</v>
+        <v>2.7083943997946</v>
       </c>
     </row>
     <row r="56">
@@ -3184,22 +3184,22 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1.43654169336682</v>
+        <v>1.42864455645682</v>
       </c>
       <c r="G56" t="n">
-        <v>0.242601432433869</v>
+        <v>0.240859466240986</v>
       </c>
       <c r="H56" t="n">
-        <v>5.92140647709657</v>
+        <v>5.93144450061773</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0000000031919982212969</v>
+        <v>0.00000000300281066678565</v>
       </c>
       <c r="J56" t="n">
-        <v>0.980755302690937</v>
+        <v>0.96999716126964</v>
       </c>
       <c r="K56" t="n">
-        <v>1.93231525845066</v>
+        <v>1.92177531059126</v>
       </c>
     </row>
     <row r="57">
@@ -3219,22 +3219,22 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.540528439867758</v>
+        <v>0.526250924628052</v>
       </c>
       <c r="G57" t="n">
-        <v>0.168185287394648</v>
+        <v>0.162649838324209</v>
       </c>
       <c r="H57" t="n">
-        <v>3.21388659044476</v>
+        <v>3.23548384707938</v>
       </c>
       <c r="I57" t="n">
-        <v>0.00130951384205114</v>
+        <v>0.00121436756209325</v>
       </c>
       <c r="J57" t="n">
-        <v>0.252867610835178</v>
+        <v>0.247824958782304</v>
       </c>
       <c r="K57" t="n">
-        <v>0.908259471511388</v>
+        <v>0.882870741727067</v>
       </c>
     </row>
     <row r="58">
@@ -3254,22 +3254,22 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1.53691466650039</v>
+        <v>1.53696480816</v>
       </c>
       <c r="G58" t="n">
-        <v>0.155238885563299</v>
+        <v>0.155214443743685</v>
       </c>
       <c r="H58" t="n">
-        <v>9.90032014803218</v>
+        <v>9.90220221191578</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.24035183411332</v>
+        <v>1.24041998842348</v>
       </c>
       <c r="K58" t="n">
-        <v>1.84686485806044</v>
+        <v>1.84670210129799</v>
       </c>
     </row>
     <row r="59">
@@ -3289,22 +3289,22 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.800079147947288</v>
+        <v>0.798970359565431</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0901116228433781</v>
+        <v>0.0900625427044843</v>
       </c>
       <c r="H59" t="n">
-        <v>8.87875639902631</v>
+        <v>8.87128361662</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.623628603005909</v>
+        <v>0.621918687467762</v>
       </c>
       <c r="K59" t="n">
-        <v>0.977815186241093</v>
+        <v>0.976411943193634</v>
       </c>
     </row>
     <row r="60">
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.175954916906067</v>
+        <v>-0.175683066875686</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0724397526298127</v>
+        <v>0.072365300283706</v>
       </c>
       <c r="H60" t="n">
-        <v>-2.42898285151863</v>
+        <v>-2.42772525211566</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0151412484748707</v>
+        <v>0.01519384853256</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.317764692477955</v>
+        <v>-0.317297665406956</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.0397310879650783</v>
+        <v>-0.0393870914724724</v>
       </c>
     </row>
     <row r="61">
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>4.85628783658941</v>
+        <v>4.81021276620679</v>
       </c>
       <c r="G62" t="n">
-        <v>0.128552650784871</v>
+        <v>0.135328232852545</v>
       </c>
       <c r="H62" t="n">
-        <v>37.7766448761624</v>
+        <v>35.5447837070926</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>4.60335601159624</v>
+        <v>4.54501225004664</v>
       </c>
       <c r="K62" t="n">
-        <v>5.10727693137856</v>
+        <v>5.07254383877827</v>
       </c>
     </row>
     <row r="63">
@@ -3425,22 +3425,22 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>4.78090063607989</v>
+        <v>4.86330310156394</v>
       </c>
       <c r="G63" t="n">
-        <v>0.141296870258756</v>
+        <v>0.146342443497536</v>
       </c>
       <c r="H63" t="n">
-        <v>33.8358565715196</v>
+        <v>33.232348629233</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>4.502307797337</v>
+        <v>4.58169764120202</v>
       </c>
       <c r="K63" t="n">
-        <v>5.05114853820986</v>
+        <v>5.15153786189073</v>
       </c>
     </row>
     <row r="64">
@@ -3460,22 +3460,22 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>4.87798815029686</v>
+        <v>5.14363570214441</v>
       </c>
       <c r="G64" t="n">
-        <v>0.141839298414002</v>
+        <v>0.134865547447612</v>
       </c>
       <c r="H64" t="n">
-        <v>34.3909495100501</v>
+        <v>38.1389895306097</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>4.60164300248021</v>
+        <v>4.87922146176377</v>
       </c>
       <c r="K64" t="n">
-        <v>5.15545625836401</v>
+        <v>5.40264689743077</v>
       </c>
     </row>
     <row r="65">
@@ -3495,22 +3495,22 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>3.98118481891887</v>
+        <v>3.98117972721205</v>
       </c>
       <c r="G65" t="n">
-        <v>0.127630358818206</v>
+        <v>0.127751368070646</v>
       </c>
       <c r="H65" t="n">
-        <v>31.1930864708263</v>
+        <v>31.1634997521942</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>3.73381095157991</v>
+        <v>3.7331304732733</v>
       </c>
       <c r="K65" t="n">
-        <v>4.236959878592</v>
+        <v>4.23650179198307</v>
       </c>
     </row>
     <row r="66">
@@ -3530,22 +3530,22 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>4.81344769623166</v>
+        <v>4.81345755523907</v>
       </c>
       <c r="G66" t="n">
-        <v>0.108870342436906</v>
+        <v>0.108702162640814</v>
       </c>
       <c r="H66" t="n">
-        <v>44.212662406396</v>
+        <v>44.2811572309214</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>4.5992557378404</v>
+        <v>4.59934062471687</v>
       </c>
       <c r="K66" t="n">
-        <v>5.02438088484713</v>
+        <v>5.02377795252343</v>
       </c>
     </row>
     <row r="67">
@@ -3565,22 +3565,22 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>4.65683474074793</v>
+        <v>4.6568323753486</v>
       </c>
       <c r="G67" t="n">
-        <v>0.116395658951775</v>
+        <v>0.116433332822714</v>
       </c>
       <c r="H67" t="n">
-        <v>40.008663404512</v>
+        <v>39.9956976447568</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>4.425710019298</v>
+        <v>4.42547390935947</v>
       </c>
       <c r="K67" t="n">
-        <v>4.88380164330547</v>
+        <v>4.88367714539037</v>
       </c>
     </row>
     <row r="68">
@@ -3600,22 +3600,22 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>4.66345083070764</v>
+        <v>4.66345597197717</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0933038619646677</v>
+        <v>0.0932491864168769</v>
       </c>
       <c r="H68" t="n">
-        <v>49.9813269516496</v>
+        <v>50.010688041061</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>4.47566015841202</v>
+        <v>4.47610253449476</v>
       </c>
       <c r="K68" t="n">
-        <v>4.84492618168959</v>
+        <v>4.84484616999816</v>
       </c>
     </row>
     <row r="69">
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>4.37091907397152</v>
+        <v>4.37096328053286</v>
       </c>
       <c r="G69" t="n">
-        <v>0.103030842851069</v>
+        <v>0.102763402772263</v>
       </c>
       <c r="H69" t="n">
-        <v>42.4234040314479</v>
+        <v>42.5342404262293</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>4.17183518992826</v>
+        <v>4.17209070667694</v>
       </c>
       <c r="K69" t="n">
-        <v>4.57271391202522</v>
+        <v>4.57169444861758</v>
       </c>
     </row>
     <row r="70">
@@ -3670,22 +3670,22 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>4.3869221629478</v>
+        <v>4.38685144078569</v>
       </c>
       <c r="G70" t="n">
-        <v>0.153174125265828</v>
+        <v>0.152344440289443</v>
       </c>
       <c r="H70" t="n">
-        <v>28.6400993335816</v>
+        <v>28.7956123141154</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>4.07718776610971</v>
+        <v>4.07713316481018</v>
       </c>
       <c r="K70" t="n">
-        <v>4.6726719042984</v>
+        <v>4.67013008947766</v>
       </c>
     </row>
     <row r="71">
@@ -3705,22 +3705,22 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>3.89513843294744</v>
+        <v>3.89513979110179</v>
       </c>
       <c r="G71" t="n">
-        <v>0.131434556841892</v>
+        <v>0.131168339443747</v>
       </c>
       <c r="H71" t="n">
-        <v>29.635573220162</v>
+        <v>29.6957315128037</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>3.64184877574044</v>
+        <v>3.64185526792244</v>
       </c>
       <c r="K71" t="n">
-        <v>4.15547537355197</v>
+        <v>4.15391740645168</v>
       </c>
     </row>
     <row r="72">
@@ -3740,22 +3740,22 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>4.56642766440635</v>
+        <v>4.5662873031056</v>
       </c>
       <c r="G72" t="n">
-        <v>0.107785427664304</v>
+        <v>0.107762668276166</v>
       </c>
       <c r="H72" t="n">
-        <v>42.3659094124338</v>
+        <v>42.3735545541938</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>4.35687460032637</v>
+        <v>4.35645264728217</v>
       </c>
       <c r="K72" t="n">
-        <v>4.77798146579386</v>
+        <v>4.7776679998169</v>
       </c>
     </row>
     <row r="73">
@@ -3775,22 +3775,22 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>4.90828387505755</v>
+        <v>4.90828406639773</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0803015778148437</v>
+        <v>0.0803015767413823</v>
       </c>
       <c r="H73" t="n">
-        <v>61.1231311839835</v>
+        <v>61.1231343838398</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>4.75147913787645</v>
+        <v>4.75147903366233</v>
       </c>
       <c r="K73" t="n">
-        <v>5.06508889944249</v>
+        <v>5.06508882028949</v>
       </c>
     </row>
     <row r="74">
@@ -3810,22 +3810,22 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>4.93195254774063</v>
+        <v>4.9319526842808</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0803939730044361</v>
+        <v>0.0803939699451939</v>
       </c>
       <c r="H74" t="n">
-        <v>61.3472921343057</v>
+        <v>61.3472961671504</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>4.77514697767954</v>
+        <v>4.77514733224355</v>
       </c>
       <c r="K74" t="n">
-        <v>5.09171597372068</v>
+        <v>5.09171611348621</v>
       </c>
     </row>
     <row r="75">
@@ -3845,22 +3845,22 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>5.0207099835722</v>
+        <v>5.02071012438309</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0820210301976009</v>
+        <v>0.0820210228740777</v>
       </c>
       <c r="H75" t="n">
-        <v>61.2124716243695</v>
+        <v>61.212478806697</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>4.86094625394045</v>
+        <v>4.86094659335428</v>
       </c>
       <c r="K75" t="n">
-        <v>5.18639046043431</v>
+        <v>5.1863903989812</v>
       </c>
     </row>
     <row r="76">
@@ -3880,22 +3880,22 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>3.14792868687424</v>
+        <v>3.14792919980826</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0613600524961498</v>
+        <v>0.0613600558606639</v>
       </c>
       <c r="H76" t="n">
-        <v>51.302574864514</v>
+        <v>51.3025804108875</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>3.02662761453905</v>
+        <v>3.02662736492286</v>
       </c>
       <c r="K76" t="n">
-        <v>3.26923032299519</v>
+        <v>3.26923020844626</v>
       </c>
     </row>
     <row r="77">
@@ -3915,22 +3915,22 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>2.8461535450251</v>
+        <v>2.84615407496911</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0603606853688229</v>
+        <v>0.0603606841291098</v>
       </c>
       <c r="H77" t="n">
-        <v>47.1524391685449</v>
+        <v>47.1524489166038</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.72485214624554</v>
+        <v>2.72485190068379</v>
       </c>
       <c r="K77" t="n">
-        <v>2.96449729584115</v>
+        <v>2.96449732055688</v>
       </c>
     </row>
     <row r="78">
@@ -3950,22 +3950,22 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>2.63609432011422</v>
+        <v>2.63609488411261</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0622340312400315</v>
+        <v>0.062234036400734</v>
       </c>
       <c r="H78" t="n">
-        <v>42.3577625872735</v>
+        <v>42.3577681373327</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.51486755992822</v>
+        <v>2.51486769810597</v>
       </c>
       <c r="K78" t="n">
-        <v>2.76035531032938</v>
+        <v>2.76035534541913</v>
       </c>
     </row>
     <row r="79">
@@ -3985,22 +3985,22 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>3.52603673799333</v>
+        <v>3.52607902883824</v>
       </c>
       <c r="G79" t="n">
-        <v>0.130973616254193</v>
+        <v>0.13097993556116</v>
       </c>
       <c r="H79" t="n">
-        <v>26.9217330851583</v>
+        <v>26.9207570894839</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>3.27236259521766</v>
+        <v>3.27235137688393</v>
       </c>
       <c r="K79" t="n">
-        <v>3.78525844316613</v>
+        <v>3.78563007549955</v>
       </c>
     </row>
     <row r="80">
@@ -4206,22 +4206,22 @@
         <v>129</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.107480809976409</v>
+        <v>-0.104691486678704</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0412938770404814</v>
+        <v>0.0381998255655499</v>
       </c>
       <c r="H86" t="n">
-        <v>-2.60282680337918</v>
+        <v>-2.74062734917615</v>
       </c>
       <c r="I86" t="n">
-        <v>0.00924586489386225</v>
+        <v>0.00613220129970471</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.194559136958725</v>
+        <v>-0.184186782262948</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.0342412556974635</v>
+        <v>-0.0362591511536633</v>
       </c>
     </row>
     <row r="87">
@@ -4241,22 +4241,22 @@
         <v>133</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.163566954451113</v>
+        <v>-0.154498867819506</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0550542586320915</v>
+        <v>0.0482551566139839</v>
       </c>
       <c r="H87" t="n">
-        <v>-2.97101366025423</v>
+        <v>-3.20170689850655</v>
       </c>
       <c r="I87" t="n">
-        <v>0.00296818577977742</v>
+        <v>0.00136615927352279</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.284281970475033</v>
+        <v>-0.262568291013355</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.0713841545254312</v>
+        <v>-0.0737379909105159</v>
       </c>
     </row>
     <row r="88">
@@ -4276,22 +4276,22 @@
         <v>136</v>
       </c>
       <c r="F88" t="n">
-        <v>0.12767188087568</v>
+        <v>0.131222457796284</v>
       </c>
       <c r="G88" t="n">
-        <v>0.044754696653984</v>
+        <v>0.0451066101755525</v>
       </c>
       <c r="H88" t="n">
-        <v>2.85270352434207</v>
+        <v>2.90916247719731</v>
       </c>
       <c r="I88" t="n">
-        <v>0.00433490436881012</v>
+        <v>0.00362398465184044</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0507649719966357</v>
+        <v>0.0523071152275918</v>
       </c>
       <c r="K88" t="n">
-        <v>0.223747924038123</v>
+        <v>0.227851669013168</v>
       </c>
     </row>
     <row r="89">
@@ -4311,22 +4311,22 @@
         <v>139</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.165706012306695</v>
+        <v>-0.167558207921298</v>
       </c>
       <c r="G89" t="n">
-        <v>0.065204519187687</v>
+        <v>0.0654992983649694</v>
       </c>
       <c r="H89" t="n">
-        <v>-2.54132711000784</v>
+        <v>-2.55816798200867</v>
       </c>
       <c r="I89" t="n">
-        <v>0.0110432547516059</v>
+        <v>0.0105225248685292</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.310037920306596</v>
+        <v>-0.312551944741731</v>
       </c>
       <c r="K89" t="n">
-        <v>-0.0551198198767795</v>
+        <v>-0.0579822586184384</v>
       </c>
     </row>
   </sheetData>
@@ -4395,22 +4395,22 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.809483231869162</v>
+        <v>0.846948322106523</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0385397137901752</v>
+        <v>0.0291230884152302</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0038724282255</v>
+        <v>29.0816794575813</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.733946780865937</v>
+        <v>0.789868117694096</v>
       </c>
       <c r="K2" t="n">
-        <v>0.885019682872387</v>
+        <v>0.90402852651895</v>
       </c>
     </row>
     <row r="3">
@@ -4430,22 +4430,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.903619401985842</v>
+        <v>0.94424113794133</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0289729726513818</v>
+        <v>0.0229371165381313</v>
       </c>
       <c r="H3" t="n">
-        <v>31.1883565714388</v>
+        <v>41.1665143860432</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.846833419064069</v>
+        <v>0.899285215617394</v>
       </c>
       <c r="K3" t="n">
-        <v>0.960405384907614</v>
+        <v>0.989197060265265</v>
       </c>
     </row>
     <row r="4">
@@ -4465,22 +4465,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.883436130039695</v>
+        <v>0.893884850024702</v>
       </c>
       <c r="G4" t="n">
-        <v>0.026437073433378</v>
+        <v>0.0265704721607193</v>
       </c>
       <c r="H4" t="n">
-        <v>33.416563004448</v>
+        <v>33.6420385990048</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.831620418253633</v>
+        <v>0.841807681537468</v>
       </c>
       <c r="K4" t="n">
-        <v>0.935251841825756</v>
+        <v>0.945962018511936</v>
       </c>
     </row>
     <row r="5">
@@ -4500,22 +4500,22 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.768873475557592</v>
+        <v>0.770179405551348</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0507645667273626</v>
+        <v>0.0507275487065685</v>
       </c>
       <c r="H5" t="n">
-        <v>15.1458689618474</v>
+        <v>15.1826655375449</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.669376753081181</v>
+        <v>0.670755237062472</v>
       </c>
       <c r="K5" t="n">
-        <v>0.868370198034003</v>
+        <v>0.869603574040224</v>
       </c>
     </row>
     <row r="6">
@@ -4535,22 +4535,22 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.658732653615707</v>
+        <v>0.656945178328075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0561020218445938</v>
+        <v>0.0560073479490199</v>
       </c>
       <c r="H6" t="n">
-        <v>11.741691867014</v>
+        <v>11.729624815052</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.548774711340424</v>
+        <v>0.547172793478393</v>
       </c>
       <c r="K6" t="n">
-        <v>0.76869059589099</v>
+        <v>0.766717563177758</v>
       </c>
     </row>
     <row r="7">
@@ -4570,22 +4570,22 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.554950134274782</v>
+        <v>0.555636804274595</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0649637659505352</v>
+        <v>0.0653536362644078</v>
       </c>
       <c r="H7" t="n">
-        <v>8.54245633938976</v>
+        <v>8.50200288820348</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.427623492711644</v>
+        <v>0.427546030937625</v>
       </c>
       <c r="K7" t="n">
-        <v>0.682276775837921</v>
+        <v>0.683727577611565</v>
       </c>
     </row>
     <row r="8">
@@ -4605,22 +4605,22 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.492132895063358</v>
+        <v>0.491243662467966</v>
       </c>
       <c r="G8" t="n">
-        <v>0.065353561908814</v>
+        <v>0.0654931059620374</v>
       </c>
       <c r="H8" t="n">
-        <v>7.53031480900792</v>
+        <v>7.50069271035508</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0000000000000506261699229071</v>
+        <v>0.000000000000063504757008559</v>
       </c>
       <c r="J8" t="n">
-        <v>0.364042267460674</v>
+        <v>0.362879533546708</v>
       </c>
       <c r="K8" t="n">
-        <v>0.620223522666042</v>
+        <v>0.619607791389225</v>
       </c>
     </row>
     <row r="9">
@@ -4640,22 +4640,22 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.482076116246436</v>
+        <v>0.480919499266499</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0690398923814353</v>
+        <v>0.0682574848065636</v>
       </c>
       <c r="H9" t="n">
-        <v>6.9825734023894</v>
+        <v>7.04566686905309</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00000000000289812618348151</v>
+        <v>0.00000000000184585680074179</v>
       </c>
       <c r="J9" t="n">
-        <v>0.346760413682302</v>
+        <v>0.347137287370345</v>
       </c>
       <c r="K9" t="n">
-        <v>0.617391818810571</v>
+        <v>0.614701711162654</v>
       </c>
     </row>
     <row r="10">
@@ -4675,22 +4675,22 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.779918767792849</v>
+        <v>0.780060715610742</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0718403865180174</v>
+        <v>0.0690928495474797</v>
       </c>
       <c r="H10" t="n">
-        <v>10.8562718770625</v>
+        <v>11.2900353758705</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.639114197582098</v>
+        <v>0.644641218908437</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9207233380036</v>
+        <v>0.915480212313047</v>
       </c>
     </row>
     <row r="11">
@@ -4710,22 +4710,22 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.638114967670698</v>
+        <v>0.637462346179135</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0639333054698637</v>
+        <v>0.0625129556950499</v>
       </c>
       <c r="H11" t="n">
-        <v>9.98094753557654</v>
+        <v>10.1972837324922</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.512807991537168</v>
+        <v>0.51493920444969</v>
       </c>
       <c r="K11" t="n">
-        <v>0.763421943804229</v>
+        <v>0.759985487908581</v>
       </c>
     </row>
     <row r="12">
@@ -4745,22 +4745,22 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.518234340682291</v>
+        <v>0.519844581663313</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0689655403520344</v>
+        <v>0.0683899897167961</v>
       </c>
       <c r="H12" t="n">
-        <v>7.51439542178551</v>
+        <v>7.60117940967671</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000000000000057065463465733</v>
+        <v>0.0000000000000293098878501041</v>
       </c>
       <c r="J12" t="n">
-        <v>0.38306436541796</v>
+        <v>0.385802664915328</v>
       </c>
       <c r="K12" t="n">
-        <v>0.653404315946623</v>
+        <v>0.653886498411298</v>
       </c>
     </row>
     <row r="13">
@@ -4780,22 +4780,22 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.85049658682453</v>
+        <v>0.850508818475638</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0225990402523497</v>
+        <v>0.0225940822775249</v>
       </c>
       <c r="H13" t="n">
-        <v>37.6341905376314</v>
+        <v>37.642990232078</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.806203281844753</v>
+        <v>0.806225230947954</v>
       </c>
       <c r="K13" t="n">
-        <v>0.894789891804306</v>
+        <v>0.894792406003321</v>
       </c>
     </row>
     <row r="14">
@@ -4815,22 +4815,22 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.945231841933515</v>
+        <v>0.945222708742443</v>
       </c>
       <c r="G14" t="n">
-        <v>0.013587663078473</v>
+        <v>0.0136018462650115</v>
       </c>
       <c r="H14" t="n">
-        <v>69.565445983942</v>
+        <v>69.4922358572654</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.918600511665643</v>
+        <v>0.91856357993977</v>
       </c>
       <c r="K14" t="n">
-        <v>0.971863172201386</v>
+        <v>0.971881837545117</v>
       </c>
     </row>
     <row r="15">
@@ -4850,22 +4850,22 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.919850725776572</v>
+        <v>0.919853495085157</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0155052103373815</v>
+        <v>0.0155073491123528</v>
       </c>
       <c r="H15" t="n">
-        <v>59.3252658791029</v>
+        <v>59.3172623135455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.889461071942587</v>
+        <v>0.889459649329256</v>
       </c>
       <c r="K15" t="n">
-        <v>0.950240379610558</v>
+        <v>0.950247340841058</v>
       </c>
     </row>
     <row r="16">
@@ -4885,22 +4885,22 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.790640984010018</v>
+        <v>0.79009254022137</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0318081998996515</v>
+        <v>0.031820234874027</v>
       </c>
       <c r="H16" t="n">
-        <v>24.8565145624189</v>
+        <v>24.8298776972975</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.728298057793651</v>
+        <v>0.727726025888671</v>
       </c>
       <c r="K16" t="n">
-        <v>0.852983910226386</v>
+        <v>0.852459054554068</v>
       </c>
     </row>
     <row r="17">
@@ -4920,22 +4920,22 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.985944693794976</v>
+        <v>0.986661611895102</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0170634347224307</v>
+        <v>0.0171645798896374</v>
       </c>
       <c r="H17" t="n">
-        <v>57.7811390164552</v>
+        <v>57.4824212558077</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.952500976286462</v>
+        <v>0.953019653501653</v>
       </c>
       <c r="K17" t="n">
-        <v>1.01938841130349</v>
+        <v>1.02030357028855</v>
       </c>
     </row>
     <row r="18">
@@ -4955,22 +4955,22 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.805806609289908</v>
+        <v>0.805233003406937</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0267233640632432</v>
+        <v>0.0268407215552178</v>
       </c>
       <c r="H18" t="n">
-        <v>30.153636622354</v>
+        <v>30.0004231164345</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7534297781802</v>
+        <v>0.752626155839642</v>
       </c>
       <c r="K18" t="n">
-        <v>0.858183440399617</v>
+        <v>0.857839850974231</v>
       </c>
     </row>
     <row r="19">
@@ -4990,22 +4990,22 @@
         <v>54</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.228975255346332</v>
+        <v>-0.232942156523344</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0769708201139489</v>
+        <v>0.076954061593056</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.97483195589384</v>
+        <v>-3.02702874547643</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00293149087790301</v>
+        <v>0.00246970471284547</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.379835290630183</v>
+        <v>-0.383769345709811</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0781152200624807</v>
+        <v>-0.0821149673368773</v>
       </c>
     </row>
     <row r="20">
@@ -5025,22 +5025,22 @@
         <v>56</v>
       </c>
       <c r="F20" t="n">
-        <v>0.460910270525207</v>
+        <v>0.464077586336296</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0754299067658804</v>
+        <v>0.0761306726319372</v>
       </c>
       <c r="H20" t="n">
-        <v>6.11044465368069</v>
+        <v>6.09580304879131</v>
       </c>
       <c r="I20" t="n">
-        <v>0.000000000993539250870867</v>
+        <v>0.00000000108889408600987</v>
       </c>
       <c r="J20" t="n">
-        <v>0.313070369906867</v>
+        <v>0.31486420985889</v>
       </c>
       <c r="K20" t="n">
-        <v>0.608750171143547</v>
+        <v>0.613290962813702</v>
       </c>
     </row>
     <row r="21">
@@ -5060,22 +5060,22 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0557129180601834</v>
+        <v>-0.0578927533084204</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0515881573722574</v>
+        <v>0.0515931927693686</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.07995557310105</v>
+        <v>-1.1221006144592</v>
       </c>
       <c r="I21" t="n">
-        <v>0.280161964261137</v>
+        <v>0.261819662663334</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.156823848538592</v>
+        <v>-0.159013552983815</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0453980124182254</v>
+        <v>0.0432280463669743</v>
       </c>
     </row>
     <row r="22">
@@ -5095,22 +5095,22 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0192676685755667</v>
+        <v>0.031241911830047</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0735390296465686</v>
+        <v>0.0731880027809302</v>
       </c>
       <c r="H22" t="n">
-        <v>0.262006021403434</v>
+        <v>0.426872036986196</v>
       </c>
       <c r="I22" t="n">
-        <v>0.793316799906226</v>
+        <v>0.669472533752847</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.124866180989731</v>
+        <v>-0.112203937720993</v>
       </c>
       <c r="K22" t="n">
-        <v>0.163401518140864</v>
+        <v>0.174687761381087</v>
       </c>
     </row>
     <row r="23">
@@ -5130,22 +5130,22 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.122620037152996</v>
+        <v>-0.122581441932737</v>
       </c>
       <c r="G23" t="n">
-        <v>0.061563430914423</v>
+        <v>0.0615133018150008</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.99176743939832</v>
+        <v>-1.99276316367143</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0463965803513162</v>
+        <v>0.0462873871678173</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.243282144509985</v>
+        <v>-0.24314529806028</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.00195792979600715</v>
+        <v>-0.00201758580519271</v>
       </c>
     </row>
     <row r="24">
@@ -5165,22 +5165,22 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0149650276664527</v>
+        <v>0.0152470380414615</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0633054147098944</v>
+        <v>0.0633879993236933</v>
       </c>
       <c r="H24" t="n">
-        <v>0.236394117865462</v>
+        <v>0.240535088725579</v>
       </c>
       <c r="I24" t="n">
-        <v>0.813126860132541</v>
+        <v>0.809915464697629</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.109111305191312</v>
+        <v>-0.108991157685027</v>
       </c>
       <c r="K24" t="n">
-        <v>0.139041360524218</v>
+        <v>0.13948523376795</v>
       </c>
     </row>
     <row r="25">
@@ -5200,22 +5200,22 @@
         <v>63</v>
       </c>
       <c r="F25" t="n">
-        <v>0.387540545525511</v>
+        <v>0.409020876845258</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0743470038646057</v>
+        <v>0.0707187546235266</v>
       </c>
       <c r="H25" t="n">
-        <v>5.21259129999731</v>
+        <v>5.78376809691704</v>
       </c>
       <c r="I25" t="n">
-        <v>0.00000018622086539466</v>
+        <v>0.00000000730456228836829</v>
       </c>
       <c r="J25" t="n">
-        <v>0.241823095592423</v>
+        <v>0.27041466475162</v>
       </c>
       <c r="K25" t="n">
-        <v>0.533257995458598</v>
+        <v>0.547627088938895</v>
       </c>
     </row>
     <row r="26">
@@ -5235,22 +5235,22 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0404747509767854</v>
+        <v>-0.0428506845987357</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0660034725691958</v>
+        <v>0.0648526806077699</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.61322153822063</v>
+        <v>-0.660738834496255</v>
       </c>
       <c r="I26" t="n">
-        <v>0.539729865219428</v>
+        <v>0.508779814473661</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.169839180066987</v>
+        <v>-0.169959602890844</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0888896781134158</v>
+        <v>0.0842582336933723</v>
       </c>
     </row>
     <row r="27">
@@ -5270,22 +5270,22 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.127551788816323</v>
+        <v>0.130291228420285</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0788195080912915</v>
+        <v>0.0780870651764141</v>
       </c>
       <c r="H27" t="n">
-        <v>1.61827689496093</v>
+        <v>1.66853790862714</v>
       </c>
       <c r="I27" t="n">
-        <v>0.105602937719919</v>
+        <v>0.0952089931066153</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.0269316083217712</v>
+        <v>-0.0227566069839183</v>
       </c>
       <c r="K27" t="n">
-        <v>0.282035185954418</v>
+        <v>0.283339063824488</v>
       </c>
     </row>
     <row r="28">
@@ -5305,22 +5305,22 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0582383653640286</v>
+        <v>0.0486097697411228</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0715932951480057</v>
+        <v>0.0713306624807302</v>
       </c>
       <c r="H28" t="n">
-        <v>0.813461166211609</v>
+        <v>0.681470885739419</v>
       </c>
       <c r="I28" t="n">
-        <v>0.415953702563339</v>
+        <v>0.495573582867362</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0820819146606087</v>
+        <v>-0.0911957597144909</v>
       </c>
       <c r="K28" t="n">
-        <v>0.198558645388666</v>
+        <v>0.188415299196737</v>
       </c>
     </row>
     <row r="29">
@@ -5340,22 +5340,22 @@
         <v>68</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.292990776898109</v>
+        <v>-0.302982055490855</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0704762104013513</v>
+        <v>0.0697862615785932</v>
       </c>
       <c r="H29" t="n">
-        <v>-4.15730038873502</v>
+        <v>-4.34157165948254</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0000322030438104637</v>
+        <v>0.0000141467123615513</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.431121611051625</v>
+        <v>-0.439760614800589</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.154859942744593</v>
+        <v>-0.166203496181121</v>
       </c>
     </row>
     <row r="30">
@@ -5375,22 +5375,22 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0632395423454313</v>
+        <v>0.0638090844122008</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0604581375587514</v>
+        <v>0.0601209631018724</v>
       </c>
       <c r="H30" t="n">
-        <v>1.04600546591395</v>
+        <v>1.06134501378627</v>
       </c>
       <c r="I30" t="n">
-        <v>0.295558508808599</v>
+        <v>0.288533135918754</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0552562298420898</v>
+        <v>-0.0540258379833307</v>
       </c>
       <c r="K30" t="n">
-        <v>0.181735314532952</v>
+        <v>0.181644006807732</v>
       </c>
     </row>
     <row r="31">
@@ -5410,22 +5410,22 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.280105181475829</v>
+        <v>0.277630324713365</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0695135954609122</v>
+        <v>0.0695610986865422</v>
       </c>
       <c r="H31" t="n">
-        <v>4.02950213722341</v>
+        <v>3.99117222061758</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0000558951076949921</v>
+        <v>0.0000657475123546636</v>
       </c>
       <c r="J31" t="n">
-        <v>0.143861037936554</v>
+        <v>0.141293076562706</v>
       </c>
       <c r="K31" t="n">
-        <v>0.416349325015104</v>
+        <v>0.413967572864024</v>
       </c>
     </row>
     <row r="32">
@@ -5445,22 +5445,22 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.269163647698396</v>
+        <v>0.277680442436194</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0666866010757285</v>
+        <v>0.0651458472063134</v>
       </c>
       <c r="H32" t="n">
-        <v>4.03624781225148</v>
+        <v>4.2624427241969</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0000543128477834554</v>
+        <v>0.0000202204335362222</v>
       </c>
       <c r="J32" t="n">
-        <v>0.138460311338578</v>
+        <v>0.14999692816947</v>
       </c>
       <c r="K32" t="n">
-        <v>0.399866984058214</v>
+        <v>0.405363956702917</v>
       </c>
     </row>
     <row r="33">
@@ -5480,22 +5480,22 @@
         <v>73</v>
       </c>
       <c r="F33" t="n">
-        <v>0.20584826877979</v>
+        <v>0.200943952206295</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0542152825100317</v>
+        <v>0.0531803821911027</v>
       </c>
       <c r="H33" t="n">
-        <v>3.79686795400727</v>
+        <v>3.77853531560203</v>
       </c>
       <c r="I33" t="n">
-        <v>0.000146535793413616</v>
+        <v>0.000157753483124967</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0995882676484636</v>
+        <v>0.0967123184276583</v>
       </c>
       <c r="K33" t="n">
-        <v>0.312108269911116</v>
+        <v>0.305175585984931</v>
       </c>
     </row>
     <row r="34">
@@ -5515,22 +5515,22 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.0032529247578441</v>
+        <v>-0.00971809290755227</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0623550209147151</v>
+        <v>0.060707099750972</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.0521678079828282</v>
+        <v>-0.160081653503743</v>
       </c>
       <c r="I34" t="n">
-        <v>0.958394983499623</v>
+        <v>0.872816753173899</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.125466520005927</v>
+        <v>-0.128701822025338</v>
       </c>
       <c r="K34" t="n">
-        <v>0.118960670490239</v>
+        <v>0.109265636210233</v>
       </c>
     </row>
     <row r="35">
@@ -5550,22 +5550,22 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.221308736319113</v>
+        <v>-0.185906140815696</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0595861215120398</v>
+        <v>0.058181148991401</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.71409869787205</v>
+        <v>-3.19529854666797</v>
       </c>
       <c r="I35" t="n">
-        <v>0.000203929198349773</v>
+        <v>0.00139686263066707</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.338095388461138</v>
+        <v>-0.299939097418001</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.104522084177087</v>
+        <v>-0.0718731842133916</v>
       </c>
     </row>
     <row r="36">
@@ -5585,22 +5585,22 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.217874256170834</v>
+        <v>-0.207548260299184</v>
       </c>
       <c r="G36" t="n">
-        <v>0.118865084615257</v>
+        <v>0.119412932797781</v>
       </c>
       <c r="H36" t="n">
-        <v>-1.83295420077351</v>
+        <v>-1.73807187744611</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0668093823190785</v>
+        <v>0.0821981494791524</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.450845541036043</v>
+        <v>-0.441593307871136</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0150970286943756</v>
+        <v>0.0264967872727673</v>
       </c>
     </row>
     <row r="37">
@@ -5620,22 +5620,22 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.344736897322657</v>
+        <v>0.282678539680946</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0623945061268425</v>
+        <v>0.0493315027301469</v>
       </c>
       <c r="H37" t="n">
-        <v>5.5251162117036</v>
+        <v>5.73018302781599</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0000000329267590970517</v>
+        <v>0.0000000100322328222546</v>
       </c>
       <c r="J37" t="n">
-        <v>0.222445912480882</v>
+        <v>0.185990571026619</v>
       </c>
       <c r="K37" t="n">
-        <v>0.467027882164432</v>
+        <v>0.379366508335273</v>
       </c>
     </row>
     <row r="38">
@@ -5655,22 +5655,22 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.18347197635475</v>
+        <v>0.108408673419263</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0523610806282569</v>
+        <v>0.0433163381817146</v>
       </c>
       <c r="H38" t="n">
-        <v>3.50397612412412</v>
+        <v>2.5027201737248</v>
       </c>
       <c r="I38" t="n">
-        <v>0.00045836645207209</v>
+        <v>0.0123242942347748</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0808461441317687</v>
+        <v>0.0235102106409452</v>
       </c>
       <c r="K38" t="n">
-        <v>0.286097808577732</v>
+        <v>0.193307136197581</v>
       </c>
     </row>
     <row r="39">
@@ -5690,22 +5690,22 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.219540604140488</v>
+        <v>0.200969874896315</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0467109290157682</v>
+        <v>0.0475018856690265</v>
       </c>
       <c r="H39" t="n">
-        <v>4.69998368189975</v>
+        <v>4.23077678003333</v>
       </c>
       <c r="I39" t="n">
-        <v>0.00000260182280276133</v>
+        <v>0.0000232885690665263</v>
       </c>
       <c r="J39" t="n">
-        <v>0.127988865585175</v>
+        <v>0.107867889787284</v>
       </c>
       <c r="K39" t="n">
-        <v>0.311092342695801</v>
+        <v>0.294071860005347</v>
       </c>
     </row>
     <row r="40">
@@ -5725,22 +5725,22 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.408833578583988</v>
+        <v>0.406823683264572</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0780630570621829</v>
+        <v>0.0781386245678735</v>
       </c>
       <c r="H40" t="n">
-        <v>5.237222240199</v>
+        <v>5.20643517229041</v>
       </c>
       <c r="I40" t="n">
-        <v>0.000000163011359743948</v>
+        <v>0.00000019250290272943</v>
       </c>
       <c r="J40" t="n">
-        <v>0.255832798219015</v>
+        <v>0.253674793310044</v>
       </c>
       <c r="K40" t="n">
-        <v>0.561834358948962</v>
+        <v>0.559972573219101</v>
       </c>
     </row>
     <row r="41">
@@ -5760,22 +5760,22 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.566071291060409</v>
+        <v>0.568423032671493</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0739124680309414</v>
+        <v>0.073587515648832</v>
       </c>
       <c r="H41" t="n">
-        <v>7.65867121124191</v>
+        <v>7.72444928544771</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0000000000000188737914186277</v>
+        <v>0.0000000000000113242748511766</v>
       </c>
       <c r="J41" t="n">
-        <v>0.421205515711296</v>
+        <v>0.424194152288005</v>
       </c>
       <c r="K41" t="n">
-        <v>0.710937066409522</v>
+        <v>0.712651913054982</v>
       </c>
     </row>
     <row r="42">
@@ -5795,22 +5795,22 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.692030348468401</v>
+        <v>0.691267741735515</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0721033018799782</v>
+        <v>0.0726257710259245</v>
       </c>
       <c r="H42" t="n">
-        <v>9.59776224423594</v>
+        <v>9.51821553107863</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.550710473617225</v>
+        <v>0.548923846175251</v>
       </c>
       <c r="K42" t="n">
-        <v>0.833350223319578</v>
+        <v>0.83361163729578</v>
       </c>
     </row>
     <row r="43">
@@ -5830,22 +5830,22 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.757805213596558</v>
+        <v>0.758679664085059</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0643252753951006</v>
+        <v>0.0643461462791949</v>
       </c>
       <c r="H43" t="n">
-        <v>11.7808312353417</v>
+        <v>11.7905998720294</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.63172999052654</v>
+        <v>0.632563534833891</v>
       </c>
       <c r="K43" t="n">
-        <v>0.883880436666576</v>
+        <v>0.884795793336226</v>
       </c>
     </row>
     <row r="44">
@@ -5865,22 +5865,22 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.767602618144752</v>
+        <v>0.76871643522526</v>
       </c>
       <c r="G44" t="n">
-        <v>0.066564967678418</v>
+        <v>0.0656527123310899</v>
       </c>
       <c r="H44" t="n">
-        <v>11.5316305996439</v>
+        <v>11.708829809629</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.63713767886298</v>
+        <v>0.640039483568955</v>
       </c>
       <c r="K44" t="n">
-        <v>0.898067557426524</v>
+        <v>0.897393386881564</v>
       </c>
     </row>
     <row r="45">
@@ -5900,22 +5900,22 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.391726715644484</v>
+        <v>0.391505279960857</v>
       </c>
       <c r="G45" t="n">
-        <v>0.112059332005972</v>
+        <v>0.107793230606082</v>
       </c>
       <c r="H45" t="n">
-        <v>3.49570810955405</v>
+        <v>3.63200247139421</v>
       </c>
       <c r="I45" t="n">
-        <v>0.000472805597477866</v>
+        <v>0.000281230427822354</v>
       </c>
       <c r="J45" t="n">
-        <v>0.172094460781163</v>
+        <v>0.180234430195715</v>
       </c>
       <c r="K45" t="n">
-        <v>0.611358970507805</v>
+        <v>0.602776129726</v>
       </c>
     </row>
     <row r="46">
@@ -5935,22 +5935,22 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.592809288034624</v>
+        <v>0.593641757203792</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0815936001251033</v>
+        <v>0.0796993112612875</v>
       </c>
       <c r="H46" t="n">
-        <v>7.2653895296408</v>
+        <v>7.44851803370781</v>
       </c>
       <c r="I46" t="n">
-        <v>0.000000000000371924713249427</v>
+        <v>0.0000000000000943689570931383</v>
       </c>
       <c r="J46" t="n">
-        <v>0.432888770420458</v>
+        <v>0.437433977539021</v>
       </c>
       <c r="K46" t="n">
-        <v>0.752729805648789</v>
+        <v>0.749849536868563</v>
       </c>
     </row>
     <row r="47">
@@ -5970,22 +5970,22 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.731433168137591</v>
+        <v>0.729761610915295</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0714806224026735</v>
+        <v>0.0711043317768714</v>
       </c>
       <c r="H47" t="n">
-        <v>10.2326077131392</v>
+        <v>10.2632510942557</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.591333722635844</v>
+        <v>0.59039968148784</v>
       </c>
       <c r="K47" t="n">
-        <v>0.871532613639338</v>
+        <v>0.86912354034275</v>
       </c>
     </row>
     <row r="48">
@@ -6005,22 +6005,22 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.276655555799826</v>
+        <v>0.276634749695174</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0384408128226277</v>
+        <v>0.0384329301394793</v>
       </c>
       <c r="H48" t="n">
-        <v>7.19692263210875</v>
+        <v>7.19785737624538</v>
       </c>
       <c r="I48" t="n">
-        <v>0.000000000000615951734062037</v>
+        <v>0.000000000000611732886568461</v>
       </c>
       <c r="J48" t="n">
-        <v>0.20131294713103</v>
+        <v>0.201307590801451</v>
       </c>
       <c r="K48" t="n">
-        <v>0.351998164468621</v>
+        <v>0.351961908588898</v>
       </c>
     </row>
     <row r="49">
@@ -6040,22 +6040,22 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.106536764994975</v>
+        <v>0.106554030877598</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0256869836083682</v>
+        <v>0.0257135475202967</v>
       </c>
       <c r="H49" t="n">
-        <v>4.14750001865801</v>
+        <v>4.14388682827567</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0000336125442577107</v>
+        <v>0.000034146830737658</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0561912022511027</v>
+        <v>0.0561564038230572</v>
       </c>
       <c r="K49" t="n">
-        <v>0.156882327738847</v>
+        <v>0.156951657932138</v>
       </c>
     </row>
     <row r="50">
@@ -6075,22 +6075,22 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.153874642288313</v>
+        <v>0.153869547579621</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02852495758036</v>
+        <v>0.0285289778641623</v>
       </c>
       <c r="H50" t="n">
-        <v>5.39438636691466</v>
+        <v>5.39344761358973</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0000000687581238612012</v>
+        <v>0.0000000691184836032477</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0979667527702745</v>
+        <v>0.097953778450122</v>
       </c>
       <c r="K50" t="n">
-        <v>0.209782531806351</v>
+        <v>0.209785316709119</v>
       </c>
     </row>
     <row r="51">
@@ -6110,22 +6110,22 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.37488683440367</v>
+        <v>0.375753777886543</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0502977328294249</v>
+        <v>0.0502818616069352</v>
       </c>
       <c r="H51" t="n">
-        <v>7.45335452146573</v>
+        <v>7.47294881052529</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0000000000000910382880192628</v>
+        <v>0.000000000000078381745538536</v>
       </c>
       <c r="J51" t="n">
-        <v>0.276305089553979</v>
+        <v>0.277203140061323</v>
       </c>
       <c r="K51" t="n">
-        <v>0.47346857925336</v>
+        <v>0.474304415711764</v>
       </c>
     </row>
     <row r="52">
@@ -6145,22 +6145,22 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0279130607775305</v>
+        <v>0.0264988636125579</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0336472049314383</v>
+        <v>0.0338712637502914</v>
       </c>
       <c r="H52" t="n">
-        <v>0.829580371814181</v>
+        <v>0.782340564790116</v>
       </c>
       <c r="I52" t="n">
-        <v>0.406776078115875</v>
+        <v>0.434014453256335</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.038034249068527</v>
+        <v>-0.0398875934488703</v>
       </c>
       <c r="K52" t="n">
-        <v>0.093860370623588</v>
+        <v>0.0928853206739862</v>
       </c>
     </row>
     <row r="53">
@@ -6180,22 +6180,22 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.350675708424701</v>
+        <v>0.351599810224244</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0430677265688758</v>
+        <v>0.0432260694592096</v>
       </c>
       <c r="H53" t="n">
-        <v>8.14242441759458</v>
+        <v>8.13397596920146</v>
       </c>
       <c r="I53" t="n">
         <v>0.000000000000000444089209850063</v>
       </c>
       <c r="J53" t="n">
-        <v>0.266264515453686</v>
+        <v>0.266878270890967</v>
       </c>
       <c r="K53" t="n">
-        <v>0.435086901395716</v>
+        <v>0.436321349557522</v>
       </c>
     </row>
     <row r="54">
@@ -6215,22 +6215,22 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.684719301053552</v>
+        <v>0.684122733657588</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0500648791782903</v>
+        <v>0.0503383058876815</v>
       </c>
       <c r="H54" t="n">
-        <v>13.6766394385002</v>
+        <v>13.5904997515024</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.586593940973754</v>
+        <v>0.585461467074972</v>
       </c>
       <c r="K54" t="n">
-        <v>0.782844661133351</v>
+        <v>0.782784000240204</v>
       </c>
     </row>
     <row r="55">
@@ -6250,22 +6250,22 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.908866813240324</v>
+        <v>0.925538838891396</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0308955480796313</v>
+        <v>0.028207367729465</v>
       </c>
       <c r="H55" t="n">
-        <v>29.4174037922155</v>
+        <v>32.8119535210864</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.848312651721621</v>
+        <v>0.870253414042967</v>
       </c>
       <c r="K55" t="n">
-        <v>0.969420974759028</v>
+        <v>0.980824263739824</v>
       </c>
     </row>
     <row r="56">
@@ -6285,22 +6285,22 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.761209203529763</v>
+        <v>0.754460423810991</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0548340663257061</v>
+        <v>0.0537003156713925</v>
       </c>
       <c r="H56" t="n">
-        <v>13.8820491445645</v>
+        <v>14.0494597541614</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.653736408405499</v>
+        <v>0.64920973913663</v>
       </c>
       <c r="K56" t="n">
-        <v>0.868681998654028</v>
+        <v>0.859711108485352</v>
       </c>
     </row>
     <row r="57">
@@ -6320,22 +6320,22 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.844144427407372</v>
+        <v>0.825804714617536</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0547961289134088</v>
+        <v>0.0562782934030197</v>
       </c>
       <c r="H57" t="n">
-        <v>15.405183616918</v>
+        <v>14.6735919780614</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0.736745988244877</v>
+        <v>0.71550128643624</v>
       </c>
       <c r="K57" t="n">
-        <v>0.951542866569867</v>
+        <v>0.936108142798833</v>
       </c>
     </row>
     <row r="58">
@@ -6417,22 +6417,22 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.158675565197907</v>
+        <v>-0.158537720118595</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0613205742953586</v>
+        <v>0.0612916238838493</v>
       </c>
       <c r="H60" t="n">
-        <v>-2.58763990750682</v>
+        <v>-2.58661314666801</v>
       </c>
       <c r="I60" t="n">
-        <v>0.00966359431239927</v>
+        <v>0.00969243425646837</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.278861682328122</v>
+        <v>-0.278667095484915</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.0384894480676913</v>
+        <v>-0.0384083447522759</v>
       </c>
     </row>
     <row r="61">
@@ -6483,22 +6483,22 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>2.7467987085551</v>
+        <v>2.58242605884708</v>
       </c>
       <c r="G62" t="n">
-        <v>0.151527011993918</v>
+        <v>0.138234448193291</v>
       </c>
       <c r="H62" t="n">
-        <v>18.1274524747136</v>
+        <v>18.6814943206929</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.44981122236206</v>
+        <v>2.31149151896546</v>
       </c>
       <c r="K62" t="n">
-        <v>3.04378619474815</v>
+        <v>2.85336059872869</v>
       </c>
     </row>
     <row r="63">
@@ -6518,22 +6518,22 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>2.56783266371848</v>
+        <v>2.61647282002597</v>
       </c>
       <c r="G63" t="n">
-        <v>0.141297741575015</v>
+        <v>0.148023348529641</v>
       </c>
       <c r="H63" t="n">
-        <v>18.1732038679133</v>
+        <v>17.6760818209841</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.2908941791346</v>
+        <v>2.32635238803685</v>
       </c>
       <c r="K63" t="n">
-        <v>2.84477114830236</v>
+        <v>2.90659325201509</v>
       </c>
     </row>
     <row r="64">
@@ -6553,22 +6553,22 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>2.62458850456348</v>
+        <v>2.93354288277743</v>
       </c>
       <c r="G64" t="n">
-        <v>0.147675309428697</v>
+        <v>0.171561155054575</v>
       </c>
       <c r="H64" t="n">
-        <v>17.7726968354904</v>
+        <v>17.0991089553125</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.33515021667742</v>
+        <v>2.59728919772438</v>
       </c>
       <c r="K64" t="n">
-        <v>2.91402679244953</v>
+        <v>3.26979656783049</v>
       </c>
     </row>
     <row r="65">
@@ -6588,22 +6588,22 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>2.22823050726866</v>
+        <v>2.22822899717761</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0972259500609011</v>
+        <v>0.0971235537778533</v>
       </c>
       <c r="H65" t="n">
-        <v>22.9180636020829</v>
+        <v>22.9422103136191</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.03767114678661</v>
+        <v>2.03787032972248</v>
       </c>
       <c r="K65" t="n">
-        <v>2.41878986775072</v>
+        <v>2.41858766463274</v>
       </c>
     </row>
     <row r="66">
@@ -6623,22 +6623,22 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>2.97524981302066</v>
+        <v>2.975256292128</v>
       </c>
       <c r="G66" t="n">
-        <v>0.139184357448246</v>
+        <v>0.139052872872169</v>
       </c>
       <c r="H66" t="n">
-        <v>21.3763232274645</v>
+        <v>21.3965826859481</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.70245348521075</v>
+        <v>2.70271766935172</v>
       </c>
       <c r="K66" t="n">
-        <v>3.24804614083057</v>
+        <v>3.24779491490428</v>
       </c>
     </row>
     <row r="67">
@@ -6658,22 +6658,22 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>2.58383896570489</v>
+        <v>2.58383761970916</v>
       </c>
       <c r="G67" t="n">
-        <v>0.123726112946763</v>
+        <v>0.123733414474836</v>
       </c>
       <c r="H67" t="n">
-        <v>20.8835378738251</v>
+        <v>20.8822946548093</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.3413402403821</v>
+        <v>2.34132458365432</v>
       </c>
       <c r="K67" t="n">
-        <v>2.82633769102768</v>
+        <v>2.82635065576401</v>
       </c>
     </row>
     <row r="68">
@@ -6693,22 +6693,22 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>3.01387961296957</v>
+        <v>3.01388363563137</v>
       </c>
       <c r="G68" t="n">
-        <v>0.135957242214757</v>
+        <v>0.135932449753617</v>
       </c>
       <c r="H68" t="n">
-        <v>22.1678489786433</v>
+        <v>22.1719217235778</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.74740831479125</v>
+        <v>2.74746092978398</v>
       </c>
       <c r="K68" t="n">
-        <v>3.28035091114788</v>
+        <v>3.28030634147876</v>
       </c>
     </row>
     <row r="69">
@@ -6728,22 +6728,22 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>2.63322206487984</v>
+        <v>2.63324814783657</v>
       </c>
       <c r="G69" t="n">
-        <v>0.116042505044678</v>
+        <v>0.115851459807359</v>
       </c>
       <c r="H69" t="n">
-        <v>22.6918753939861</v>
+        <v>22.729520648382</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.40578293431646</v>
+        <v>2.40618345905775</v>
       </c>
       <c r="K69" t="n">
-        <v>2.86066119544321</v>
+        <v>2.86031283661538</v>
       </c>
     </row>
     <row r="70">
@@ -6763,22 +6763,22 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>2.24764676819872</v>
+        <v>2.24761048338606</v>
       </c>
       <c r="G70" t="n">
-        <v>0.144163329980966</v>
+        <v>0.141507654116655</v>
       </c>
       <c r="H70" t="n">
-        <v>15.5909742685291</v>
+        <v>15.8833138561763</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.96509183354466</v>
+        <v>1.97026057778067</v>
       </c>
       <c r="K70" t="n">
-        <v>2.53020170285278</v>
+        <v>2.52496038899146</v>
       </c>
     </row>
     <row r="71">
@@ -6798,22 +6798,22 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>2.00790294681072</v>
+        <v>2.00790385274819</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0949348427162765</v>
+        <v>0.0945444178528667</v>
       </c>
       <c r="H71" t="n">
-        <v>21.150326785831</v>
+        <v>21.2376774678856</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.82183407420884</v>
+        <v>1.82260019881727</v>
       </c>
       <c r="K71" t="n">
-        <v>2.1939718194126</v>
+        <v>2.19320750667912</v>
       </c>
     </row>
     <row r="72">
@@ -6833,22 +6833,22 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>2.72221609226396</v>
+        <v>2.72212965471508</v>
       </c>
       <c r="G72" t="n">
-        <v>0.133132390812723</v>
+        <v>0.132953273500096</v>
       </c>
       <c r="H72" t="n">
-        <v>20.4474363875376</v>
+        <v>20.4743334485338</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.46128140109531</v>
+        <v>2.46154602702819</v>
       </c>
       <c r="K72" t="n">
-        <v>2.98315078343261</v>
+        <v>2.98271328240197</v>
       </c>
     </row>
     <row r="73">
@@ -6868,22 +6868,22 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>3.36726557319829</v>
+        <v>3.36725920395566</v>
       </c>
       <c r="G73" t="n">
-        <v>0.149174212420755</v>
+        <v>0.149173550186016</v>
       </c>
       <c r="H73" t="n">
-        <v>22.5727055538306</v>
+        <v>22.5727630652804</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>3.07488948943148</v>
+        <v>3.07488441814509</v>
       </c>
       <c r="K73" t="n">
-        <v>3.6596416569651</v>
+        <v>3.65963398976623</v>
       </c>
     </row>
     <row r="74">
@@ -6903,22 +6903,22 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>3.35724664942693</v>
+        <v>3.35724203748585</v>
       </c>
       <c r="G74" t="n">
-        <v>0.149609251953352</v>
+        <v>0.149609724361878</v>
       </c>
       <c r="H74" t="n">
-        <v>22.4401004990902</v>
+        <v>22.4399988156204</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>3.06401790384438</v>
+        <v>3.0640123659996</v>
       </c>
       <c r="K74" t="n">
-        <v>3.65047539500948</v>
+        <v>3.65047170897209</v>
       </c>
     </row>
     <row r="75">
@@ -6938,22 +6938,22 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>3.34635363556658</v>
+        <v>3.34634922939997</v>
       </c>
       <c r="G75" t="n">
-        <v>0.152594066501432</v>
+        <v>0.152592109748684</v>
       </c>
       <c r="H75" t="n">
-        <v>21.9297755954042</v>
+        <v>21.9300279346772</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>3.04727476096927</v>
+        <v>3.04727418996757</v>
       </c>
       <c r="K75" t="n">
-        <v>3.6454325101639</v>
+        <v>3.64542426883237</v>
       </c>
     </row>
     <row r="76">
@@ -6973,22 +6973,22 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>2.78251639719915</v>
+        <v>2.7825154433412</v>
       </c>
       <c r="G76" t="n">
-        <v>0.11181803582882</v>
+        <v>0.111817991859502</v>
       </c>
       <c r="H76" t="n">
-        <v>24.8843254719556</v>
+        <v>24.8843267265737</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.56335707415265</v>
+        <v>2.56335620647298</v>
       </c>
       <c r="K76" t="n">
-        <v>3.00167572024565</v>
+        <v>3.00167468020941</v>
       </c>
     </row>
     <row r="77">
@@ -7008,22 +7008,22 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>2.50595357827519</v>
+        <v>2.50595299715978</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0887804260364366</v>
+        <v>0.0888192495084747</v>
       </c>
       <c r="H77" t="n">
-        <v>28.2264198332041</v>
+        <v>28.21407533871</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.33194714071165</v>
+        <v>2.33187046698929</v>
       </c>
       <c r="K77" t="n">
-        <v>2.67996001583872</v>
+        <v>2.68003552733027</v>
       </c>
     </row>
     <row r="78">
@@ -7043,22 +7043,22 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>2.26893713414052</v>
+        <v>2.26893710003662</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0776551409361655</v>
+        <v>0.0776621138872973</v>
       </c>
       <c r="H78" t="n">
-        <v>29.218118810777</v>
+        <v>29.2154950009381</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.11673585469125</v>
+        <v>2.11672215385427</v>
       </c>
       <c r="K78" t="n">
-        <v>2.42113841358978</v>
+        <v>2.42115204621897</v>
       </c>
     </row>
     <row r="79">
@@ -7078,22 +7078,22 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>2.0341180721068</v>
+        <v>2.03414046250779</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0904968074815106</v>
+        <v>0.0904644918401815</v>
       </c>
       <c r="H79" t="n">
-        <v>22.4772357027334</v>
+        <v>22.4855125047449</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.85674758872719</v>
+        <v>1.85683331662132</v>
       </c>
       <c r="K79" t="n">
-        <v>2.21148855548642</v>
+        <v>2.21144760839427</v>
       </c>
     </row>
     <row r="80">
@@ -7299,22 +7299,22 @@
         <v>129</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.0887371953687605</v>
+        <v>-0.0952782051154034</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0339777686676554</v>
+        <v>0.0348126899963335</v>
       </c>
       <c r="H86" t="n">
-        <v>-2.61162515516307</v>
+        <v>-2.73688143965428</v>
       </c>
       <c r="I86" t="n">
-        <v>0.00901129974271364</v>
+        <v>0.00620246423060822</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.155332398232399</v>
+        <v>-0.163509823713175</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.0221419925051224</v>
+        <v>-0.027046586517632</v>
       </c>
     </row>
     <row r="87">
@@ -7334,22 +7334,22 @@
         <v>133</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.135042458241498</v>
+        <v>-0.140607181015406</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0424318541232482</v>
+        <v>0.0419666156960528</v>
       </c>
       <c r="H87" t="n">
-        <v>-3.18257264575929</v>
+        <v>-3.350453180065</v>
       </c>
       <c r="I87" t="n">
-        <v>0.00145972891740387</v>
+        <v>0.000806794471425842</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.218207364120322</v>
+        <v>-0.222860236332703</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.0518775523626742</v>
+        <v>-0.058354125698109</v>
       </c>
     </row>
     <row r="88">
@@ -7369,22 +7369,22 @@
         <v>136</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0797745503784017</v>
+        <v>0.0821902715281702</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0269587988655436</v>
+        <v>0.0267571000424758</v>
       </c>
       <c r="H88" t="n">
-        <v>2.95912851222621</v>
+        <v>3.0717182130237</v>
       </c>
       <c r="I88" t="n">
-        <v>0.00308510415777374</v>
+        <v>0.00212830537562114</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0269362755354769</v>
+        <v>0.0297473191141825</v>
       </c>
       <c r="K88" t="n">
-        <v>0.132612825221327</v>
+        <v>0.134633223942158</v>
       </c>
     </row>
     <row r="89">
@@ -7404,22 +7404,22 @@
         <v>139</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.0603116441929214</v>
+        <v>-0.0608824116779194</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0220702320740541</v>
+        <v>0.022157727041107</v>
       </c>
       <c r="H89" t="n">
-        <v>-2.73271454466599</v>
+        <v>-2.74768307981095</v>
       </c>
       <c r="I89" t="n">
-        <v>0.00628147465010009</v>
+        <v>0.00600179907704246</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.103568504188508</v>
+        <v>-0.104310758657758</v>
       </c>
       <c r="K89" t="n">
-        <v>-0.0170547841973347</v>
+        <v>-0.0174540646980803</v>
       </c>
     </row>
   </sheetData>
@@ -7506,61 +7506,61 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>3.12575669926722</v>
+        <v>3.46954705794756</v>
       </c>
       <c r="C2" t="n">
-        <v>2.40776439622093</v>
+        <v>2.76879836889776</v>
       </c>
       <c r="D2" t="n">
-        <v>2.34984987640928</v>
+        <v>2.4725930305859</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.649731820888181</v>
+        <v>-0.729135922970176</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.504044693939423</v>
+        <v>-0.563153160135182</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.473049271900044</v>
+        <v>-0.530616835314121</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.360156229558934</v>
+        <v>-0.402756903137718</v>
       </c>
       <c r="I2" t="n">
-        <v>0.424203588981736</v>
+        <v>0.496217175928281</v>
       </c>
       <c r="J2" t="n">
-        <v>0.80696497021514</v>
+        <v>0.946399105663387</v>
       </c>
       <c r="K2" t="n">
-        <v>0.65622467189109</v>
+        <v>0.768685533963397</v>
       </c>
       <c r="L2" t="n">
-        <v>0.460843659229405</v>
+        <v>0.542053288860672</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0565329886720124</v>
+        <v>0.0386369859618749</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0633214792101057</v>
+        <v>0.0432754581345776</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0629343461429442</v>
+        <v>0.0430114245083067</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.282641797155277</v>
+        <v>-0.259978952899215</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.353840685898158</v>
+        <v>-0.325931678658764</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.295827959234853</v>
+        <v>-0.272102796187122</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.586834470519877</v>
+        <v>-0.637937817234106</v>
       </c>
       <c r="T2" t="n">
-        <v>0.147299972396842</v>
+        <v>0.15850327762272</v>
       </c>
       <c r="U2" t="s">
         <v>162</v>
@@ -7571,61 +7571,61 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>2.40776439622093</v>
+        <v>2.76879836889776</v>
       </c>
       <c r="C3" t="n">
-        <v>3.46645843721612</v>
+        <v>3.45485814136571</v>
       </c>
       <c r="D3" t="n">
-        <v>2.76237872983128</v>
+        <v>2.75078954483545</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.763795755692545</v>
+        <v>-0.811172501442764</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.592532465754875</v>
+        <v>-0.626514677457385</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.556095629758119</v>
+        <v>-0.590317623984361</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.42338360332622</v>
+        <v>-0.448071908541704</v>
       </c>
       <c r="I3" t="n">
-        <v>0.498674823053735</v>
+        <v>0.552047588352155</v>
       </c>
       <c r="J3" t="n">
-        <v>0.948632034675981</v>
+        <v>1.05288041052335</v>
       </c>
       <c r="K3" t="n">
-        <v>0.771428461801332</v>
+        <v>0.85517192030252</v>
       </c>
       <c r="L3" t="n">
-        <v>0.541747255777117</v>
+        <v>0.603040816380642</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0664576605548907</v>
+        <v>0.0429841125139366</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0744379073180349</v>
+        <v>0.0481444687063412</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0739828109473785</v>
+        <v>0.0478507281151292</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.332261093128248</v>
+        <v>-0.289229718221349</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.415959331822328</v>
+        <v>-0.362602920454219</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.347762157269582</v>
+        <v>-0.302717639988925</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.689856435328112</v>
+        <v>-0.709713509742809</v>
       </c>
       <c r="T3" t="n">
-        <v>0.173159279126179</v>
+        <v>0.17633680654815</v>
       </c>
       <c r="U3" t="s">
         <v>163</v>
@@ -7636,61 +7636,61 @@
         <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>2.34984987640928</v>
+        <v>2.4725930305859</v>
       </c>
       <c r="C4" t="n">
-        <v>2.76237872983128</v>
+        <v>2.75078954483545</v>
       </c>
       <c r="D4" t="n">
-        <v>3.45429192456189</v>
+        <v>3.07436566997679</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.745423997851728</v>
+        <v>-0.724393475595972</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.578280143857903</v>
+        <v>-0.559490298189389</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5427197315941</v>
+        <v>-0.527165596199343</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.413199858553994</v>
+        <v>-0.400137290857544</v>
       </c>
       <c r="I4" t="n">
-        <v>0.48668008097488</v>
+        <v>0.492989679149039</v>
       </c>
       <c r="J4" t="n">
-        <v>0.925814366613257</v>
+        <v>0.94024353464815</v>
       </c>
       <c r="K4" t="n">
-        <v>0.752873112696415</v>
+        <v>0.76368584792779</v>
       </c>
       <c r="L4" t="n">
-        <v>0.528716482406243</v>
+        <v>0.538527664741146</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0648591389117917</v>
+        <v>0.0383856831980834</v>
       </c>
       <c r="N4" t="n">
-        <v>0.072647434934244</v>
+        <v>0.0429939858105124</v>
       </c>
       <c r="O4" t="n">
-        <v>0.072203285102965</v>
+        <v>0.0427316695122981</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.324269139392733</v>
+        <v>-0.258287997257498</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.40595416478793</v>
+        <v>-0.323811753162117</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.339397352815066</v>
+        <v>-0.270332984618883</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.673263157242551</v>
+        <v>-0.633788540767348</v>
       </c>
       <c r="T4" t="n">
-        <v>0.168994238511215</v>
+        <v>0.157472340277455</v>
       </c>
       <c r="U4" t="s">
         <v>164</v>
@@ -7701,61 +7701,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.649731820888181</v>
+        <v>-0.729135922970176</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.763795755692546</v>
+        <v>-0.811172501442764</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.745423997851728</v>
+        <v>-0.724393475595972</v>
       </c>
       <c r="E5" t="n">
-        <v>3.19230550437981</v>
+        <v>3.19230166573344</v>
       </c>
       <c r="F5" t="n">
-        <v>1.46402709691646</v>
+        <v>1.46253328077402</v>
       </c>
       <c r="G5" t="n">
-        <v>1.37399909286913</v>
+        <v>1.37803502833866</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04609469266809</v>
+        <v>1.04597721649825</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.282401350162395</v>
+        <v>-0.28297001609441</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.537213741330049</v>
+        <v>-0.539688231589971</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.436862719140968</v>
+        <v>-0.438346289626621</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.306793424102233</v>
+        <v>-0.309108260079858</v>
       </c>
       <c r="M5" t="n">
-        <v>0.388401366291205</v>
+        <v>0.388320400900831</v>
       </c>
       <c r="N5" t="n">
-        <v>0.435040665963605</v>
+        <v>0.434939290258521</v>
       </c>
       <c r="O5" t="n">
-        <v>0.432380926654679</v>
+        <v>0.43228562457906</v>
       </c>
       <c r="P5" t="n">
-        <v>0.355618292707036</v>
+        <v>0.356119086851578</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.445200327325474</v>
+        <v>0.446461109584349</v>
       </c>
       <c r="R5" t="n">
-        <v>0.372209046421784</v>
+        <v>0.372726323524674</v>
       </c>
       <c r="S5" t="n">
-        <v>1.1658203513816</v>
+        <v>1.16866700230448</v>
       </c>
       <c r="T5" t="n">
-        <v>0.00201109725072579</v>
+        <v>0.00201366874690579</v>
       </c>
       <c r="U5" t="s">
         <v>165</v>
@@ -7766,61 +7766,61 @@
         <v>23</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.504044693939423</v>
+        <v>-0.563153160135182</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.592532465754875</v>
+        <v>-0.626514677457385</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.578280143857903</v>
+        <v>-0.559490298189389</v>
       </c>
       <c r="E6" t="n">
-        <v>1.46402709691646</v>
+        <v>1.46253328077402</v>
       </c>
       <c r="F6" t="n">
-        <v>2.61737313809729</v>
+        <v>2.61737246047778</v>
       </c>
       <c r="G6" t="n">
-        <v>1.06591201165358</v>
+        <v>1.06433486067266</v>
       </c>
       <c r="H6" t="n">
-        <v>0.81153248501321</v>
+        <v>0.807867718958191</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.219079468689254</v>
+        <v>-0.218553844032162</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.416756155576006</v>
+        <v>-0.416831928770695</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.338906497240574</v>
+        <v>-0.338559780776102</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.238002191954903</v>
+        <v>-0.238741897092046</v>
       </c>
       <c r="M6" t="n">
-        <v>0.301311466522118</v>
+        <v>0.299921940509313</v>
       </c>
       <c r="N6" t="n">
-        <v>0.337492996767609</v>
+        <v>0.335928361310567</v>
       </c>
       <c r="O6" t="n">
-        <v>0.335429641637344</v>
+        <v>0.333878784316414</v>
       </c>
       <c r="P6" t="n">
-        <v>0.275879228543474</v>
+        <v>0.275051033458853</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.345374592276771</v>
+        <v>0.344827317951484</v>
       </c>
       <c r="R6" t="n">
-        <v>0.288749894731476</v>
+        <v>0.287877747270277</v>
       </c>
       <c r="S6" t="n">
-        <v>0.904412471898342</v>
+        <v>0.902628021415424</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00156015584528212</v>
+        <v>0.00155527094820129</v>
       </c>
       <c r="U6" t="s">
         <v>166</v>
@@ -7831,61 +7831,61 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.473049271900044</v>
+        <v>-0.530616835314121</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.556095629758119</v>
+        <v>-0.590317623984361</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5427197315941</v>
+        <v>-0.527165596199343</v>
       </c>
       <c r="E7" t="n">
-        <v>1.37399909286913</v>
+        <v>1.37803502833866</v>
       </c>
       <c r="F7" t="n">
-        <v>1.06591201165358</v>
+        <v>1.06433486067266</v>
       </c>
       <c r="G7" t="n">
-        <v>3.24825986216633</v>
+        <v>3.24825994653802</v>
       </c>
       <c r="H7" t="n">
-        <v>0.76162859320739</v>
+        <v>0.761192944887557</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.205607527264547</v>
+        <v>-0.205926837093916</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.39112840255151</v>
+        <v>-0.392749352323789</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.318065984404778</v>
+        <v>-0.318999398666137</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.223366627937189</v>
+        <v>-0.224948519975387</v>
       </c>
       <c r="M7" t="n">
-        <v>0.282782799952563</v>
+        <v>0.282593869980451</v>
       </c>
       <c r="N7" t="n">
-        <v>0.316739404881958</v>
+        <v>0.316520010165767</v>
       </c>
       <c r="O7" t="n">
-        <v>0.314802932474294</v>
+        <v>0.314588848031989</v>
       </c>
       <c r="P7" t="n">
-        <v>0.258914476759715</v>
+        <v>0.25915988625329</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.324136334284944</v>
+        <v>0.324904827200741</v>
       </c>
       <c r="R7" t="n">
-        <v>0.270993681922094</v>
+        <v>0.271245533235124</v>
       </c>
       <c r="S7" t="n">
-        <v>0.848797073896482</v>
+        <v>0.850478445462918</v>
       </c>
       <c r="T7" t="n">
-        <v>0.00146421655764916</v>
+        <v>0.00146541475216523</v>
       </c>
       <c r="U7" t="s">
         <v>167</v>
@@ -7896,61 +7896,61 @@
         <v>27</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.360156229558934</v>
+        <v>-0.402756903137718</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.42338360332622</v>
+        <v>-0.448071908541704</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.413199858553994</v>
+        <v>-0.400137290857544</v>
       </c>
       <c r="E8" t="n">
-        <v>1.04609469266809</v>
+        <v>1.04597721649825</v>
       </c>
       <c r="F8" t="n">
-        <v>0.81153248501321</v>
+        <v>0.807867718958191</v>
       </c>
       <c r="G8" t="n">
-        <v>0.76162859320739</v>
+        <v>0.761192944887557</v>
       </c>
       <c r="H8" t="n">
-        <v>2.39421420236442</v>
+        <v>2.39421309024471</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.156539363206508</v>
+        <v>-0.156305736382812</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.297785746864285</v>
+        <v>-0.298110618291315</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.24215964910814</v>
+        <v>-0.24213180087569</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.170060260750491</v>
+        <v>-0.17074386495307</v>
       </c>
       <c r="M8" t="n">
-        <v>0.21529678421438</v>
+        <v>0.21449871987505</v>
       </c>
       <c r="N8" t="n">
-        <v>0.241149657321809</v>
+        <v>0.240249857507849</v>
       </c>
       <c r="O8" t="n">
-        <v>0.239675323373068</v>
+        <v>0.238784037298815</v>
       </c>
       <c r="P8" t="n">
-        <v>0.197124627955683</v>
+        <v>0.196711499255592</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.246781312124685</v>
+        <v>0.246614229532312</v>
       </c>
       <c r="R8" t="n">
-        <v>0.206321135054991</v>
+        <v>0.205884931809683</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6462319507804</v>
+        <v>0.645543152955648</v>
       </c>
       <c r="T8" t="n">
-        <v>0.00111478179121289</v>
+        <v>0.0011123015104581</v>
       </c>
       <c r="U8" t="s">
         <v>168</v>
@@ -7961,61 +7961,61 @@
         <v>30</v>
       </c>
       <c r="B9" t="n">
-        <v>0.424203588981736</v>
+        <v>0.496217175928281</v>
       </c>
       <c r="C9" t="n">
-        <v>0.498674823053735</v>
+        <v>0.552047588352155</v>
       </c>
       <c r="D9" t="n">
-        <v>0.48668008097488</v>
+        <v>0.492989679149039</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.282401350162395</v>
+        <v>-0.28297001609441</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.219079468689254</v>
+        <v>-0.218553844032162</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.205607527264547</v>
+        <v>-0.205926837093916</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.156539363206508</v>
+        <v>-0.156305736382812</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7553105833272</v>
+        <v>2.75531173201615</v>
       </c>
       <c r="J9" t="n">
-        <v>1.21809773485292</v>
+        <v>1.2153966707669</v>
       </c>
       <c r="K9" t="n">
-        <v>0.990558222337738</v>
+        <v>0.987171092253849</v>
       </c>
       <c r="L9" t="n">
-        <v>0.695634430425163</v>
+        <v>0.696122554128696</v>
       </c>
       <c r="M9" t="n">
-        <v>0.129618064224642</v>
+        <v>0.129314997604066</v>
       </c>
       <c r="N9" t="n">
-        <v>0.145182622604174</v>
+        <v>0.144839604479236</v>
       </c>
       <c r="O9" t="n">
-        <v>0.144295009195763</v>
+        <v>0.143955904395014</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.0340465964627773</v>
+        <v>-0.0338618585163001</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0426231051675224</v>
+        <v>-0.0424520995474651</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.0356349812796536</v>
+        <v>-0.0354409704463649</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.498205460406886</v>
+        <v>-0.497048551200177</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0157239347756942</v>
+        <v>0.0157020934156472</v>
       </c>
       <c r="U9" t="s">
         <v>169</v>
@@ -8026,61 +8026,61 @@
         <v>32</v>
       </c>
       <c r="B10" t="n">
-        <v>0.80696497021514</v>
+        <v>0.946399105663387</v>
       </c>
       <c r="C10" t="n">
-        <v>0.948632034675981</v>
+        <v>1.05288041052335</v>
       </c>
       <c r="D10" t="n">
-        <v>0.925814366613258</v>
+        <v>0.94024353464815</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.537213741330049</v>
+        <v>-0.539688231589971</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.416756155576006</v>
+        <v>-0.416831928770696</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.39112840255151</v>
+        <v>-0.392749352323789</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.297785746864285</v>
+        <v>-0.298110618291315</v>
       </c>
       <c r="I10" t="n">
-        <v>1.21809773485292</v>
+        <v>1.2153966707669</v>
       </c>
       <c r="J10" t="n">
-        <v>3.80946280269823</v>
+        <v>3.80946297285499</v>
       </c>
       <c r="K10" t="n">
-        <v>1.88434470416409</v>
+        <v>1.88275997721776</v>
       </c>
       <c r="L10" t="n">
-        <v>1.32330944859789</v>
+        <v>1.32766416524592</v>
       </c>
       <c r="M10" t="n">
-        <v>0.246573202238715</v>
+        <v>0.246633135687829</v>
       </c>
       <c r="N10" t="n">
-        <v>0.276181752744618</v>
+        <v>0.27624209477908</v>
       </c>
       <c r="O10" t="n">
-        <v>0.27449324056253</v>
+        <v>0.274556677566711</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0647670397284047</v>
+        <v>-0.064582271977942</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0810821824363854</v>
+        <v>-0.0809658169733746</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.0677886334624831</v>
+        <v>-0.0675939978730804</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.947739163365665</v>
+        <v>-0.947984727548241</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0299117331571639</v>
+        <v>0.0299474663242194</v>
       </c>
       <c r="U10" t="s">
         <v>170</v>
@@ -8091,61 +8091,61 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>0.65622467189109</v>
+        <v>0.768685533963397</v>
       </c>
       <c r="C11" t="n">
-        <v>0.771428461801332</v>
+        <v>0.855171920302519</v>
       </c>
       <c r="D11" t="n">
-        <v>0.752873112696415</v>
+        <v>0.76368584792779</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.436862719140968</v>
+        <v>-0.438346289626621</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.338906497240574</v>
+        <v>-0.338559780776102</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.318065984404778</v>
+        <v>-0.318999398666137</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.24215964910814</v>
+        <v>-0.24213180087569</v>
       </c>
       <c r="I11" t="n">
-        <v>0.990558222337738</v>
+        <v>0.987171092253849</v>
       </c>
       <c r="J11" t="n">
-        <v>1.88434470416409</v>
+        <v>1.88275997721776</v>
       </c>
       <c r="K11" t="n">
-        <v>3.76322651442242</v>
+        <v>3.76322574291222</v>
       </c>
       <c r="L11" t="n">
-        <v>1.07611648679746</v>
+        <v>1.07835714518217</v>
       </c>
       <c r="M11" t="n">
-        <v>0.200513559706437</v>
+        <v>0.200320691835794</v>
       </c>
       <c r="N11" t="n">
-        <v>0.224591260793916</v>
+        <v>0.22436971977016</v>
       </c>
       <c r="O11" t="n">
-        <v>0.223218161101151</v>
+        <v>0.223000787971632</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0526686175532483</v>
+        <v>-0.0524550984070675</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0659361069308188</v>
+        <v>-0.0657621630034565</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.0551257804164704</v>
+        <v>-0.0549012863990068</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.770702378012965</v>
+        <v>-0.769973409868952</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0243242495043132</v>
+        <v>0.0243239707270721</v>
       </c>
       <c r="U11" t="s">
         <v>171</v>
@@ -8156,61 +8156,61 @@
         <v>36</v>
       </c>
       <c r="B12" t="n">
-        <v>0.460843659229405</v>
+        <v>0.542053288860672</v>
       </c>
       <c r="C12" t="n">
-        <v>0.541747255777117</v>
+        <v>0.603040816380642</v>
       </c>
       <c r="D12" t="n">
-        <v>0.528716482406243</v>
+        <v>0.538527664741146</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.306793424102233</v>
+        <v>-0.309108260079858</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.238002191954903</v>
+        <v>-0.238741897092046</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.223366627937189</v>
+        <v>-0.224948519975387</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.170060260750491</v>
+        <v>-0.17074386495307</v>
       </c>
       <c r="I12" t="n">
-        <v>0.695634430425163</v>
+        <v>0.696122554128696</v>
       </c>
       <c r="J12" t="n">
-        <v>1.32330944859789</v>
+        <v>1.32766416524592</v>
       </c>
       <c r="K12" t="n">
-        <v>1.07611648679746</v>
+        <v>1.07835714518217</v>
       </c>
       <c r="L12" t="n">
-        <v>2.81389553949617</v>
+        <v>2.81390125177879</v>
       </c>
       <c r="M12" t="n">
-        <v>0.140813667236766</v>
+        <v>0.141259962674942</v>
       </c>
       <c r="N12" t="n">
-        <v>0.157722595459488</v>
+        <v>0.158218594143537</v>
       </c>
       <c r="O12" t="n">
-        <v>0.156758315520002</v>
+        <v>0.157253265734412</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.0369873299183443</v>
+        <v>-0.0369897147178719</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.0463046241552815</v>
+        <v>-0.0463734455295637</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.0387129095463499</v>
+        <v>-0.0387146909111475</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.541237352501195</v>
+        <v>-0.542961459158415</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0170820705617072</v>
+        <v>0.017152512631242</v>
       </c>
       <c r="U12" t="s">
         <v>172</v>
@@ -8221,58 +8221,58 @@
         <v>39</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0565329886720124</v>
+        <v>0.0386369859618749</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0664576605548907</v>
+        <v>0.0429841125139366</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0648591389117917</v>
+        <v>0.0383856831980834</v>
       </c>
       <c r="E13" t="n">
-        <v>0.388401366291205</v>
+        <v>0.388320400900831</v>
       </c>
       <c r="F13" t="n">
-        <v>0.301311466522118</v>
+        <v>0.299921940509313</v>
       </c>
       <c r="G13" t="n">
-        <v>0.282782799952563</v>
+        <v>0.282593869980451</v>
       </c>
       <c r="H13" t="n">
-        <v>0.21529678421438</v>
+        <v>0.21449871987505</v>
       </c>
       <c r="I13" t="n">
-        <v>0.129618064224642</v>
+        <v>0.129314997604066</v>
       </c>
       <c r="J13" t="n">
-        <v>0.246573202238715</v>
+        <v>0.246633135687829</v>
       </c>
       <c r="K13" t="n">
-        <v>0.200513559706437</v>
+        <v>0.200320691835794</v>
       </c>
       <c r="L13" t="n">
-        <v>0.140813667236766</v>
+        <v>0.141259962674942</v>
       </c>
       <c r="M13" t="n">
-        <v>2.12473418275826</v>
+        <v>2.12474238638409</v>
       </c>
       <c r="N13" t="n">
-        <v>1.72146763135292</v>
+        <v>1.72148149121877</v>
       </c>
       <c r="O13" t="n">
-        <v>1.71094297127773</v>
+        <v>1.7109783326093</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.175954916906067</v>
+        <v>-0.175683066875686</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.220278844501515</v>
+        <v>-0.220251202107542</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.184163787909484</v>
+        <v>-0.183875860743755</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.10569466856042</v>
+        <v>-0.105699245040428</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -8286,58 +8286,58 @@
         <v>41</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0633214792101057</v>
+        <v>0.0432754581345776</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0744379073180349</v>
+        <v>0.0481444687063412</v>
       </c>
       <c r="D14" t="n">
-        <v>0.072647434934244</v>
+        <v>0.0429939858105124</v>
       </c>
       <c r="E14" t="n">
-        <v>0.435040665963605</v>
+        <v>0.43493929025852</v>
       </c>
       <c r="F14" t="n">
-        <v>0.337492996767609</v>
+        <v>0.335928361310567</v>
       </c>
       <c r="G14" t="n">
-        <v>0.316739404881958</v>
+        <v>0.316520010165767</v>
       </c>
       <c r="H14" t="n">
-        <v>0.241149657321809</v>
+        <v>0.240249857507849</v>
       </c>
       <c r="I14" t="n">
-        <v>0.145182622604174</v>
+        <v>0.144839604479236</v>
       </c>
       <c r="J14" t="n">
-        <v>0.276181752744618</v>
+        <v>0.27624209477908</v>
       </c>
       <c r="K14" t="n">
-        <v>0.224591260793916</v>
+        <v>0.22436971977016</v>
       </c>
       <c r="L14" t="n">
-        <v>0.157722595459488</v>
+        <v>0.158218594143537</v>
       </c>
       <c r="M14" t="n">
-        <v>1.72146763135292</v>
+        <v>1.72148149121877</v>
       </c>
       <c r="N14" t="n">
-        <v>2.15809858862092</v>
+        <v>2.15810463740409</v>
       </c>
       <c r="O14" t="n">
-        <v>1.91639328346839</v>
+        <v>1.91638579870245</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.19708361214413</v>
+        <v>-0.196774282886221</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.246729964224131</v>
+        <v>-0.246692940419848</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.206278205721997</v>
+        <v>-0.205950643288471</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.118386501670678</v>
+        <v>-0.118388718470873</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -8351,58 +8351,58 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0629343461429442</v>
+        <v>0.0430114245083067</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0739828109473785</v>
+        <v>0.0478507281151292</v>
       </c>
       <c r="D15" t="n">
-        <v>0.072203285102965</v>
+        <v>0.0427316695122981</v>
       </c>
       <c r="E15" t="n">
-        <v>0.432380926654679</v>
+        <v>0.43228562457906</v>
       </c>
       <c r="F15" t="n">
-        <v>0.335429641637344</v>
+        <v>0.333878784316414</v>
       </c>
       <c r="G15" t="n">
-        <v>0.314802932474294</v>
+        <v>0.314588848031989</v>
       </c>
       <c r="H15" t="n">
-        <v>0.239675323373068</v>
+        <v>0.238784037298815</v>
       </c>
       <c r="I15" t="n">
-        <v>0.144295009195763</v>
+        <v>0.143955904395014</v>
       </c>
       <c r="J15" t="n">
-        <v>0.27449324056253</v>
+        <v>0.274556677566711</v>
       </c>
       <c r="K15" t="n">
-        <v>0.223218161101151</v>
+        <v>0.223000787971632</v>
       </c>
       <c r="L15" t="n">
-        <v>0.156758315520002</v>
+        <v>0.157253265734412</v>
       </c>
       <c r="M15" t="n">
-        <v>1.71094297127773</v>
+        <v>1.7109783326093</v>
       </c>
       <c r="N15" t="n">
-        <v>1.91639328346839</v>
+        <v>1.91638579870245</v>
       </c>
       <c r="O15" t="n">
-        <v>2.25105757096106</v>
+        <v>2.25106362520514</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.195878687935025</v>
+        <v>-0.195573717260648</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.245221513553012</v>
+        <v>-0.245187809464748</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.205017067866945</v>
+        <v>-0.204694090555715</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.117662713627916</v>
+        <v>-0.117666401388747</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -8416,58 +8416,58 @@
         <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.282641797155277</v>
+        <v>-0.259978952899215</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.332261093128248</v>
+        <v>-0.289229718221349</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.324269139392733</v>
+        <v>-0.258287997257498</v>
       </c>
       <c r="E16" t="n">
-        <v>0.355618292707036</v>
+        <v>0.356119086851578</v>
       </c>
       <c r="F16" t="n">
-        <v>0.275879228543474</v>
+        <v>0.275051033458853</v>
       </c>
       <c r="G16" t="n">
-        <v>0.258914476759715</v>
+        <v>0.25915988625329</v>
       </c>
       <c r="H16" t="n">
-        <v>0.197124627955683</v>
+        <v>0.196711499255592</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0340465964627773</v>
+        <v>-0.0338618585163001</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0647670397284047</v>
+        <v>-0.064582271977942</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0526686175532483</v>
+        <v>-0.0524550984070675</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0369873299183443</v>
+        <v>-0.0369897147178719</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.175954916906067</v>
+        <v>-0.175683066875686</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.19708361214413</v>
+        <v>-0.196774282886221</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.195878687935025</v>
+        <v>-0.195573717260648</v>
       </c>
       <c r="P16" t="n">
-        <v>1.27989489260564</v>
+        <v>1.27989618721348</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.00162310504611</v>
+        <v>1.00165704795614</v>
       </c>
       <c r="R16" t="n">
-        <v>0.837405450806612</v>
+        <v>0.836229496595685</v>
       </c>
       <c r="S16" t="n">
-        <v>0.270488800749984</v>
+        <v>0.270126327267927</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -8481,58 +8481,58 @@
         <v>48</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.353840685898158</v>
+        <v>-0.325931678658764</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.415959331822328</v>
+        <v>-0.362602920454219</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.40595416478793</v>
+        <v>-0.323811753162117</v>
       </c>
       <c r="E17" t="n">
-        <v>0.445200327325474</v>
+        <v>0.446461109584349</v>
       </c>
       <c r="F17" t="n">
-        <v>0.345374592276771</v>
+        <v>0.344827317951484</v>
       </c>
       <c r="G17" t="n">
-        <v>0.324136334284944</v>
+        <v>0.324904827200741</v>
       </c>
       <c r="H17" t="n">
-        <v>0.246781312124685</v>
+        <v>0.246614229532312</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0426231051675224</v>
+        <v>-0.0424520995474651</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0810821824363854</v>
+        <v>-0.0809658169733746</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0659361069308188</v>
+        <v>-0.0657621630034566</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0463046241552815</v>
+        <v>-0.0463734455295637</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.220278844501515</v>
+        <v>-0.220251202107542</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.246729964224131</v>
+        <v>-0.246692940419848</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.245221513553012</v>
+        <v>-0.245187809464748</v>
       </c>
       <c r="P17" t="n">
-        <v>1.00162310504611</v>
+        <v>1.00165704795614</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.28994326220607</v>
+        <v>1.28994434083255</v>
       </c>
       <c r="R17" t="n">
-        <v>1.04835209112927</v>
+        <v>1.04836826416123</v>
       </c>
       <c r="S17" t="n">
-        <v>0.338626288639694</v>
+        <v>0.33865328833174</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -8546,58 +8546,58 @@
         <v>50</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.295827959234853</v>
+        <v>-0.272102796187122</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.347762157269582</v>
+        <v>-0.302717639988925</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.339397352815066</v>
+        <v>-0.270332984618883</v>
       </c>
       <c r="E18" t="n">
-        <v>0.372209046421784</v>
+        <v>0.372726323524674</v>
       </c>
       <c r="F18" t="n">
-        <v>0.288749894731476</v>
+        <v>0.287877747270277</v>
       </c>
       <c r="G18" t="n">
-        <v>0.270993681922093</v>
+        <v>0.271245533235124</v>
       </c>
       <c r="H18" t="n">
-        <v>0.206321135054991</v>
+        <v>0.205884931809683</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0356349812796536</v>
+        <v>-0.0354409704463649</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0677886334624831</v>
+        <v>-0.0675939978730804</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0551257804164704</v>
+        <v>-0.0549012863990068</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0387129095463499</v>
+        <v>-0.0387146909111475</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.184163787909484</v>
+        <v>-0.183875860743755</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.206278205721997</v>
+        <v>-0.205950643288471</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.205017067866945</v>
+        <v>-0.204694090555715</v>
       </c>
       <c r="P18" t="n">
-        <v>0.837405450806612</v>
+        <v>0.836229496595685</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.04835209112926</v>
+        <v>1.04836826416123</v>
       </c>
       <c r="R18" t="n">
-        <v>1.34982343777916</v>
+        <v>1.34982405595265</v>
       </c>
       <c r="S18" t="n">
-        <v>0.283107985892795</v>
+        <v>0.282723382618802</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -8611,61 +8611,61 @@
         <v>52</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.586834470519877</v>
+        <v>-0.637937817234106</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.689856435328112</v>
+        <v>-0.709713509742809</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.673263157242551</v>
+        <v>-0.633788540767348</v>
       </c>
       <c r="E19" t="n">
-        <v>1.1658203513816</v>
+        <v>1.16866700230448</v>
       </c>
       <c r="F19" t="n">
-        <v>0.904412471898342</v>
+        <v>0.902628021415424</v>
       </c>
       <c r="G19" t="n">
-        <v>0.848797073896482</v>
+        <v>0.850478445462918</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6462319507804</v>
+        <v>0.645543152955648</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.498205460406886</v>
+        <v>-0.497048551200177</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.947739163365665</v>
+        <v>-0.947984727548241</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.770702378012965</v>
+        <v>-0.769973409868952</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.541237352501195</v>
+        <v>-0.542961459158415</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.10569466856042</v>
+        <v>-0.105699245040428</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.118386501670678</v>
+        <v>-0.118388718470873</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.117662713627916</v>
+        <v>-0.117666401388747</v>
       </c>
       <c r="P19" t="n">
-        <v>0.270488800749984</v>
+        <v>0.270126327267927</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.338626288639694</v>
+        <v>0.33865328833174</v>
       </c>
       <c r="R19" t="n">
-        <v>0.283107985892795</v>
+        <v>0.282723382618802</v>
       </c>
       <c r="S19" t="n">
-        <v>3.00483998163705</v>
+        <v>3.00484590982861</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.051479822108019</v>
+        <v>-0.0515012289436057</v>
       </c>
       <c r="U19" t="s">
         <v>179</v>
@@ -8676,37 +8676,37 @@
         <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>0.147299972396842</v>
+        <v>0.15850327762272</v>
       </c>
       <c r="C20" t="n">
-        <v>0.173159279126179</v>
+        <v>0.17633680654815</v>
       </c>
       <c r="D20" t="n">
-        <v>0.168994238511215</v>
+        <v>0.157472340277455</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00201109725072579</v>
+        <v>0.00201366874690579</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00156015584528212</v>
+        <v>0.00155527094820129</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00146421655764916</v>
+        <v>0.00146541475216523</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00111478179121289</v>
+        <v>0.0011123015104581</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0157239347756942</v>
+        <v>0.0157020934156472</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0299117331571639</v>
+        <v>0.0299474663242194</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0243242495043132</v>
+        <v>0.0243239707270721</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0170820705617072</v>
+        <v>0.017152512631242</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.051479822108019</v>
+        <v>-0.0515012289436057</v>
       </c>
       <c r="T20" t="n">
         <v>0.25</v>
@@ -8826,61 +8826,61 @@
         <v>182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00828097448370135</v>
+        <v>0.00835112488917966</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0434540485113923</v>
+        <v>-0.00929239921882896</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00373979623001652</v>
+        <v>0.0371142625761065</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0247449506805566</v>
+        <v>-0.174307583909833</v>
       </c>
       <c r="G2" t="n">
-        <v>0.111603953069003</v>
+        <v>0.14566077541476</v>
       </c>
       <c r="H2" t="n">
-        <v>0.337996227538855</v>
+        <v>0.180410259914102</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0733227853517979</v>
+        <v>0.15238926895124</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.390241192707101</v>
+        <v>-0.216044913052334</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0992253952702876</v>
+        <v>0.153571133473895</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.124074186964093</v>
+        <v>-0.214196895610397</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.149098622290923</v>
+        <v>0.0501791259707431</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0697318479933725</v>
+        <v>0.0410783601394524</v>
       </c>
       <c r="O2" t="n">
-        <v>0.106709332035998</v>
+        <v>0.0186358895073149</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0729940177098612</v>
+        <v>-0.0426875562964098</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.159797193076159</v>
+        <v>0.0133489329419301</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.10223578201263</v>
+        <v>-0.0805316804673169</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.155180408819488</v>
+        <v>-0.146098597321508</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0377903194047191</v>
+        <v>0.00127418500834364</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.0304360670713985</v>
+        <v>0.0352837046258004</v>
       </c>
       <c r="V2" t="s">
         <v>183</v>
@@ -8894,61 +8894,61 @@
         <v>182</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0434540485113923</v>
+        <v>-0.00929239921882896</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0114397456206152</v>
+        <v>0.0103304024527864</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.00287276015234994</v>
+        <v>0.0111148002505037</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.139647751187464</v>
+        <v>-0.277348558744203</v>
       </c>
       <c r="G3" t="n">
-        <v>0.175040081034453</v>
+        <v>-0.0232174747781833</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2058890543581</v>
+        <v>0.116463417198886</v>
       </c>
       <c r="I3" t="n">
-        <v>0.173015969139741</v>
+        <v>-0.0211431049382176</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.218502560177788</v>
+        <v>-0.227706703929341</v>
       </c>
       <c r="K3" t="n">
-        <v>0.151338204461301</v>
+        <v>0.149449689963319</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.216939823448332</v>
+        <v>-0.0826762093680268</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0504851590542978</v>
+        <v>0.0157662982161881</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0132576855464366</v>
+        <v>0.000493006634551159</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.0125265596761425</v>
+        <v>0.0316409029543141</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.0736589427354816</v>
+        <v>-0.108536628468762</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0856310731709624</v>
+        <v>0.0294699058898464</v>
       </c>
       <c r="R3" t="n">
-        <v>0.00949597269624758</v>
+        <v>-0.0331640344843359</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.0704392362390479</v>
+        <v>-0.106853103332387</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0531928031023502</v>
+        <v>-0.0680516245312002</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0206277031223413</v>
+        <v>0.00857443605540009</v>
       </c>
       <c r="V3" t="s">
         <v>184</v>
@@ -8962,61 +8962,61 @@
         <v>182</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.00373979623001652</v>
+        <v>0.0371142625761065</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.00287276015234994</v>
+        <v>0.0111148002505037</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0108966192566045</v>
+        <v>0.00823823044686467</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.343097062335239</v>
+        <v>-0.035094987693127</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0714520083776651</v>
+        <v>0.288578915534718</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0688655248086251</v>
+        <v>0.254197212739382</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0560151549259275</v>
+        <v>0.248715772003164</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.162339196552067</v>
+        <v>-0.278098743957697</v>
       </c>
       <c r="K4" t="n">
-        <v>0.276515733873416</v>
+        <v>0.11228438804363</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0196225982380778</v>
+        <v>-0.116605913751813</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0900906321905871</v>
+        <v>0.0469998027845016</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.021382019763304</v>
+        <v>0.056927856243813</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0071379367264113</v>
+        <v>0.0266726925270815</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.132889185456598</v>
+        <v>-0.052228885996316</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0645093270612302</v>
+        <v>0.125361979260927</v>
       </c>
       <c r="R4" t="n">
-        <v>0.010187209849375</v>
+        <v>0.057084397677365</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.070173390506246</v>
+        <v>-0.045035875014883</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.104501977031458</v>
+        <v>0.105454448823789</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0159170040923352</v>
+        <v>-0.0139812160170997</v>
       </c>
       <c r="V4" t="s">
         <v>185</v>
@@ -9030,61 +9030,61 @@
         <v>182</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0247449506805566</v>
+        <v>-0.174307583909833</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.139647751187464</v>
+        <v>-0.277348558744203</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.343097062335239</v>
+        <v>-0.0350949876931269</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.00021664194502069</v>
+        <v>-0.000212803298644815</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0436636642635366</v>
+        <v>-0.0421698481211024</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0861327716618867</v>
+        <v>-0.0901687071314154</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0332887685057712</v>
+        <v>-0.0331712923359297</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.270818074927764</v>
+        <v>-0.270249408995749</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.686946827277492</v>
+        <v>-0.68447233701757</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0698859941393767</v>
+        <v>-0.0684024236537238</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0849086861728925</v>
+        <v>0.0872235221505182</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.20928473872214</v>
+        <v>-0.209203773331766</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.163857934266535</v>
+        <v>-0.16375655856145</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.12142367725865</v>
+        <v>-0.121328375183031</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.220293899303443</v>
+        <v>-0.220794693447985</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0288552029430729</v>
+        <v>0.0275944206841987</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0336503422550843</v>
+        <v>0.0331330651521939</v>
       </c>
       <c r="T5" t="n">
-        <v>0.198426348663914</v>
+        <v>0.195579697741035</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.0123661268365246</v>
+        <v>-0.0123686983327046</v>
       </c>
       <c r="V5" t="s">
         <v>186</v>
@@ -9098,61 +9098,61 @@
         <v>182</v>
       </c>
       <c r="C6" t="n">
-        <v>0.111603953069003</v>
+        <v>0.14566077541476</v>
       </c>
       <c r="D6" t="n">
-        <v>0.175040081034453</v>
+        <v>-0.0232174747781831</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0714520083776651</v>
+        <v>0.288578915534718</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0436636642635366</v>
+        <v>-0.0421698481211024</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.000132845390454328</v>
+        <v>-0.000132167770946268</v>
       </c>
       <c r="H6" t="n">
-        <v>0.143867057706736</v>
+        <v>0.145444208687661</v>
       </c>
       <c r="I6" t="n">
-        <v>0.112349731995998</v>
+        <v>0.116014498051017</v>
       </c>
       <c r="J6" t="n">
-        <v>0.322472207038749</v>
+        <v>0.321946582381656</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0545508714888749</v>
+        <v>-0.0544750982941859</v>
       </c>
       <c r="L6" t="n">
-        <v>0.156997600493261</v>
+        <v>0.156650884028789</v>
       </c>
       <c r="M6" t="n">
-        <v>0.463554518554109</v>
+        <v>0.464294223691253</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0871903366360384</v>
+        <v>0.0885798626488441</v>
       </c>
       <c r="O6" t="n">
-        <v>0.11452198870209</v>
+        <v>0.116086624159132</v>
       </c>
       <c r="P6" t="n">
-        <v>0.189079304127862</v>
+        <v>0.190630161448792</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.103773910102243</v>
+        <v>-0.102945715017622</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.0925298039290249</v>
+        <v>-0.0919825296037379</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.0330165520614026</v>
+        <v>-0.0321444046002037</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.143374693109084</v>
+        <v>-0.141590242626165</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.00747731560859598</v>
+        <v>-0.00747243071151515</v>
       </c>
       <c r="V6" t="s">
         <v>187</v>
@@ -9166,61 +9166,61 @@
         <v>182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.337996227538855</v>
+        <v>0.180410259914102</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2058890543581</v>
+        <v>0.116463417198886</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0688655248086252</v>
+        <v>0.254197212739382</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0861327716618869</v>
+        <v>-0.0901687071314157</v>
       </c>
       <c r="G7" t="n">
-        <v>0.143867057706736</v>
+        <v>0.145444208687661</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.000115539488557026</v>
+        <v>-0.000115623860243552</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0417834021709214</v>
+        <v>0.0422190504907548</v>
       </c>
       <c r="J7" t="n">
-        <v>0.520022288652452</v>
+        <v>0.520341598481821</v>
       </c>
       <c r="K7" t="n">
-        <v>0.294606922211189</v>
+        <v>0.296227871983467</v>
       </c>
       <c r="L7" t="n">
-        <v>0.417283448779276</v>
+        <v>0.418216863040634</v>
       </c>
       <c r="M7" t="n">
-        <v>0.546053158520855</v>
+        <v>0.547635050559053</v>
       </c>
       <c r="N7" t="n">
-        <v>0.147550521709847</v>
+        <v>0.147739451681959</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0535995188251971</v>
+        <v>0.0538189135413886</v>
       </c>
       <c r="P7" t="n">
-        <v>0.233663507776402</v>
+        <v>0.233877592218706</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0192344935658481</v>
+        <v>-0.019479903059424</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0436379033117795</v>
+        <v>0.0428694103959824</v>
       </c>
       <c r="S7" t="n">
-        <v>0.15548823397721</v>
+        <v>0.15523638266418</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.0776318485892445</v>
+        <v>-0.0793132201556803</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01776655267312</v>
+        <v>0.0177653544786039</v>
       </c>
       <c r="V7" t="s">
         <v>188</v>
@@ -9234,61 +9234,61 @@
         <v>182</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0733227853517979</v>
+        <v>0.152389268951239</v>
       </c>
       <c r="D8" t="n">
-        <v>0.173015969139741</v>
+        <v>-0.0211431049382177</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0560151549259275</v>
+        <v>0.248715772003164</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0332887685057712</v>
+        <v>-0.0331712923359297</v>
       </c>
       <c r="G8" t="n">
-        <v>0.112349731995998</v>
+        <v>0.116014498051017</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0417834021709214</v>
+        <v>0.0422190504907548</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0000665884853567889</v>
+        <v>-0.0000654763656462443</v>
       </c>
       <c r="J8" t="n">
-        <v>0.270348403506214</v>
+        <v>0.270114776682518</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0418160679314746</v>
+        <v>0.0421409393585045</v>
       </c>
       <c r="L8" t="n">
-        <v>0.220407959741519</v>
+        <v>0.220380111509069</v>
       </c>
       <c r="M8" t="n">
-        <v>0.290968142127193</v>
+        <v>0.291651746329772</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0528573420417054</v>
+        <v>0.0536554063810356</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0378759370201293</v>
+        <v>0.0387757368340894</v>
       </c>
       <c r="P8" t="n">
-        <v>0.00097626445648899</v>
+        <v>0.00186755053074228</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.0441187808214786</v>
+        <v>-0.0437056521213875</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0656902399918368</v>
+        <v>0.0658573225842094</v>
       </c>
       <c r="S8" t="n">
-        <v>0.133556670343981</v>
+        <v>0.133992873589289</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.155676648094921</v>
+        <v>-0.154987850270169</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.0440141900752366</v>
+        <v>-0.0440117097944818</v>
       </c>
       <c r="V8" t="s">
         <v>189</v>
@@ -9302,61 +9302,61 @@
         <v>182</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.390241192707101</v>
+        <v>-0.216044913052334</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.218502560177788</v>
+        <v>-0.227706703929341</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.162339196552067</v>
+        <v>-0.278098743957697</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.270818074927764</v>
+        <v>-0.270249408995749</v>
       </c>
       <c r="G9" t="n">
-        <v>0.322472207038749</v>
+        <v>0.321946582381656</v>
       </c>
       <c r="H9" t="n">
-        <v>0.520022288652452</v>
+        <v>0.520341598481821</v>
       </c>
       <c r="I9" t="n">
-        <v>0.270348403506214</v>
+        <v>0.270114776682518</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0000499131826039445</v>
+        <v>-0.0000510618715527933</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00155493837280796</v>
+        <v>0.00425600245882163</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0941902108403712</v>
+        <v>0.0975773409242605</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0567902045666095</v>
+        <v>0.0563020808630768</v>
       </c>
       <c r="N9" t="n">
-        <v>0.191309074180877</v>
+        <v>0.191612140801453</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0745050634012194</v>
+        <v>0.0748480815261572</v>
       </c>
       <c r="P9" t="n">
-        <v>0.08405833977661</v>
+        <v>0.0843974445773594</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.101743805944238</v>
+        <v>0.101559067997761</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0216854629281035</v>
+        <v>0.0215144573080462</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0518809110440165</v>
+        <v>0.0516869002107278</v>
       </c>
       <c r="T9" t="n">
-        <v>0.185961491358183</v>
+        <v>0.184804582151474</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.0689783726455168</v>
+        <v>-0.0689565312854697</v>
       </c>
       <c r="V9" t="s">
         <v>190</v>
@@ -9370,61 +9370,61 @@
         <v>182</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0992253952702875</v>
+        <v>0.153571133473895</v>
       </c>
       <c r="D10" t="n">
-        <v>0.151338204461301</v>
+        <v>0.149449689963319</v>
       </c>
       <c r="E10" t="n">
-        <v>0.276515733873416</v>
+        <v>0.11228438804363</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.686946827277492</v>
+        <v>-0.68447233701757</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.054550871488875</v>
+        <v>-0.0544750982941858</v>
       </c>
       <c r="H10" t="n">
-        <v>0.294606922211189</v>
+        <v>0.296227871983468</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0418160679314746</v>
+        <v>0.0421409393585045</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00155493837280773</v>
+        <v>0.00425600245882163</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.000168660336266946</v>
+        <v>-0.000168830493034289</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0456223204940542</v>
+        <v>-0.0440375935477195</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.050201014019271</v>
+        <v>-0.0545557306673004</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.0132918045285536</v>
+        <v>-0.0133517379776676</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.124480131652921</v>
+        <v>-0.124540473687384</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.23344950960073</v>
+        <v>-0.233512946604911</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0341833766913945</v>
+        <v>0.0339986089409317</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.0602469026796824</v>
+        <v>-0.0603632681426932</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.195673780318548</v>
+        <v>-0.195868415907951</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.128842538955681</v>
+        <v>-0.128596974773106</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0603249532333685</v>
+        <v>0.060289220066313</v>
       </c>
       <c r="V10" t="s">
         <v>191</v>
@@ -9438,61 +9438,61 @@
         <v>182</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.124074186964093</v>
+        <v>-0.214196895610397</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.216939823448332</v>
+        <v>-0.0826762093680267</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0196225982380777</v>
+        <v>-0.116605913751813</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0698859941393767</v>
+        <v>-0.0684024236537238</v>
       </c>
       <c r="G11" t="n">
-        <v>0.156997600493261</v>
+        <v>0.156650884028789</v>
       </c>
       <c r="H11" t="n">
-        <v>0.417283448779276</v>
+        <v>0.418216863040634</v>
       </c>
       <c r="I11" t="n">
-        <v>0.220407959741519</v>
+        <v>0.220380111509069</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0941902108403712</v>
+        <v>0.0975773409242605</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.045622320494054</v>
+        <v>-0.0440375935477195</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.000114228438039099</v>
+        <v>-0.000113456927836708</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0759877812603835</v>
+        <v>0.0737471228756705</v>
       </c>
       <c r="N11" t="n">
-        <v>0.202614832156595</v>
+        <v>0.202807700027238</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0822344806016976</v>
+        <v>0.0824560216254529</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0267877139879533</v>
+        <v>-0.0265703408584347</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0396075632527459</v>
+        <v>-0.0398210823989267</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0750394296436083</v>
+        <v>0.074865485716246</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.0333777733806651</v>
+        <v>-0.0336022673981286</v>
       </c>
       <c r="T11" t="n">
-        <v>0.022295459487705</v>
+        <v>0.021566491343692</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.0228449595634847</v>
+        <v>-0.0228446807862436</v>
       </c>
       <c r="V11" t="s">
         <v>192</v>
@@ -9506,61 +9506,61 @@
         <v>182</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.149098622290923</v>
+        <v>0.0501791259707431</v>
       </c>
       <c r="D12" t="n">
-        <v>0.050485159054298</v>
+        <v>0.015766298216188</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0900906321905871</v>
+        <v>0.0469998027845014</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0849086861728925</v>
+        <v>0.0872235221505182</v>
       </c>
       <c r="G12" t="n">
-        <v>0.463554518554109</v>
+        <v>0.464294223691253</v>
       </c>
       <c r="H12" t="n">
-        <v>0.546053158520856</v>
+        <v>0.547635050559053</v>
       </c>
       <c r="I12" t="n">
-        <v>0.290968142127193</v>
+        <v>0.291651746329772</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0567902045666095</v>
+        <v>0.0563020808630768</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.050201014019271</v>
+        <v>-0.0545557306673001</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0759877812603833</v>
+        <v>0.0737471228756705</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0000497357778157514</v>
+        <v>-0.000055448060430674</v>
       </c>
       <c r="N12" t="n">
-        <v>0.195335277127928</v>
+        <v>0.194888981689753</v>
       </c>
       <c r="O12" t="n">
-        <v>0.187879799414643</v>
+        <v>0.187383800730594</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0911584240899573</v>
+        <v>0.0906634738755471</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0901542358390046</v>
+        <v>0.0901566206385322</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0321944739504565</v>
+        <v>0.0322632953247386</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.0415451346397775</v>
+        <v>-0.0415433532749798</v>
       </c>
       <c r="T12" t="n">
-        <v>0.112584644262689</v>
+        <v>0.114308750919909</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.057022898964074</v>
+        <v>-0.0570933410336087</v>
       </c>
       <c r="V12" t="s">
         <v>193</v>
@@ -9574,58 +9574,58 @@
         <v>182</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0697318479933725</v>
+        <v>0.0410783601394524</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0132576855464366</v>
+        <v>0.000493006634551159</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.021382019763304</v>
+        <v>0.056927856243813</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.20928473872214</v>
+        <v>-0.209203773331766</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0871903366360384</v>
+        <v>0.0885798626488441</v>
       </c>
       <c r="H13" t="n">
-        <v>0.147550521709847</v>
+        <v>0.147739451681959</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0528573420417054</v>
+        <v>0.0536554063810356</v>
       </c>
       <c r="J13" t="n">
-        <v>0.191309074180877</v>
+        <v>0.191612140801453</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0132918045285536</v>
+        <v>-0.0133517379776676</v>
       </c>
       <c r="L13" t="n">
-        <v>0.202614832156595</v>
+        <v>0.202807700027238</v>
       </c>
       <c r="M13" t="n">
-        <v>0.195335277127928</v>
+        <v>0.194888981689753</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.00000990839811709776</v>
+        <v>-0.0000181120239410859</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.00285658832221336</v>
+        <v>-0.00287044818805637</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0019429362649459</v>
+        <v>-0.00197829759651857</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.0826669800863352</v>
+        <v>-0.082938830116716</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.0689792346973919</v>
+        <v>-0.0690068770913656</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.0799813750750036</v>
+        <v>-0.0802693022407325</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.0773959095005679</v>
+        <v>-0.0773913330205598</v>
       </c>
       <c r="U13" t="n">
         <v>-0.0221893491124256</v>
@@ -9642,58 +9642,58 @@
         <v>182</v>
       </c>
       <c r="C14" t="n">
-        <v>0.106709332035998</v>
+        <v>0.0186358895073149</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0125265596761425</v>
+        <v>0.0316409029543141</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00713793672641132</v>
+        <v>0.0266726925270815</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.163857934266534</v>
+        <v>-0.16375655856145</v>
       </c>
       <c r="G14" t="n">
-        <v>0.11452198870209</v>
+        <v>0.116086624159132</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0535995188251972</v>
+        <v>0.0538189135413886</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0378759370201293</v>
+        <v>0.0387757368340893</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0745050634012194</v>
+        <v>0.0748480815261572</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.124480131652921</v>
+        <v>-0.124540473687384</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0822344806016976</v>
+        <v>0.0824560216254528</v>
       </c>
       <c r="M14" t="n">
-        <v>0.187879799414643</v>
+        <v>0.187383800730594</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.00285658832221336</v>
+        <v>-0.00287044818805637</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.00000713524043716163</v>
+        <v>-0.0000131840236003988</v>
       </c>
       <c r="P14" t="n">
-        <v>0.00217574422672029</v>
+        <v>0.00218322899265844</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.0443295036431322</v>
+        <v>-0.0446388329010408</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.00634240719143542</v>
+        <v>-0.00637943099571869</v>
       </c>
       <c r="S14" t="n">
-        <v>0.00991778416813099</v>
+        <v>0.00959022173460539</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0110810851936668</v>
+        <v>0.0110833019938617</v>
       </c>
       <c r="U14" t="n">
         <v>-0.0162721893491122</v>
@@ -9710,58 +9710,58 @@
         <v>182</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0729940177098612</v>
+        <v>-0.0426875562964098</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0736589427354816</v>
+        <v>-0.108536628468762</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.132889185456598</v>
+        <v>-0.052228885996316</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.12142367725865</v>
+        <v>-0.121328375183031</v>
       </c>
       <c r="G15" t="n">
-        <v>0.189079304127862</v>
+        <v>0.190630161448792</v>
       </c>
       <c r="H15" t="n">
-        <v>0.233663507776402</v>
+        <v>0.233877592218706</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00097626445648899</v>
+        <v>0.00186755053074222</v>
       </c>
       <c r="J15" t="n">
-        <v>0.08405833977661</v>
+        <v>0.0843974445773595</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.23344950960073</v>
+        <v>-0.233512946604911</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0267877139879533</v>
+        <v>-0.0265703408584347</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0911584240899573</v>
+        <v>0.0906634738755471</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.0019429362649459</v>
+        <v>-0.00197829759651857</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00217574422672007</v>
+        <v>0.00218322899265844</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.00000718757112494472</v>
+        <v>-0.0000132418152030134</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.00245120247497652</v>
+        <v>-0.00275617314935298</v>
       </c>
       <c r="R15" t="n">
-        <v>0.050182824431482</v>
+        <v>0.0501491203432177</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0705417343702199</v>
+        <v>0.0702187570589896</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0319776885937814</v>
+        <v>0.0319813763546126</v>
       </c>
       <c r="U15" t="n">
         <v>-0.00147928994082847</v>
@@ -9778,58 +9778,58 @@
         <v>182</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.159797193076159</v>
+        <v>0.0133489329419301</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0856310731709624</v>
+        <v>0.0294699058898464</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0645093270612302</v>
+        <v>0.125361979260927</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.220293899303443</v>
+        <v>-0.220794693447985</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.103773910102243</v>
+        <v>-0.102945715017622</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0192344935658481</v>
+        <v>-0.019479903059424</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0441187808214786</v>
+        <v>-0.0437056521213875</v>
       </c>
       <c r="J16" t="n">
-        <v>0.101743805944238</v>
+        <v>0.101559067997761</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0341833766913945</v>
+        <v>0.0339986089409317</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0396075632527459</v>
+        <v>-0.0398210823989267</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0901542358390046</v>
+        <v>0.0901566206385322</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0826669800863352</v>
+        <v>-0.082938830116716</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.0443295036431322</v>
+        <v>-0.0446388329010408</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.00245120247497652</v>
+        <v>-0.00275617314935298</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.00000273196701083833</v>
+        <v>-0.00000402657484643854</v>
       </c>
       <c r="R16" t="n">
-        <v>0.000425142564262737</v>
+        <v>0.000391199654235397</v>
       </c>
       <c r="S16" t="n">
-        <v>0.00636752633004312</v>
+        <v>0.00754348054097043</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.0786362745779297</v>
+        <v>-0.0782738010958722</v>
       </c>
       <c r="U16" t="n">
         <v>-0.0355029585798816</v>
@@ -9846,58 +9846,58 @@
         <v>182</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.10223578201263</v>
+        <v>-0.0805316804673168</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00949597269624752</v>
+        <v>-0.0331640344843359</v>
       </c>
       <c r="E17" t="n">
-        <v>0.010187209849375</v>
+        <v>0.057084397677365</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0288552029430729</v>
+        <v>0.0275944206841987</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0925298039290249</v>
+        <v>-0.091982529603738</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0436379033117795</v>
+        <v>0.0428694103959823</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0656902399918368</v>
+        <v>0.0658573225842094</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0216854629281035</v>
+        <v>0.0215144573080462</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0602469026796824</v>
+        <v>-0.0603632681426932</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0750394296436083</v>
+        <v>0.074865485716246</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0321944739504565</v>
+        <v>0.0322632953247386</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0689792346973919</v>
+        <v>-0.0690068770913656</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.00634240719143542</v>
+        <v>-0.00637943099571872</v>
       </c>
       <c r="P17" t="n">
-        <v>0.050182824431482</v>
+        <v>0.0501491203432177</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.000425142564262737</v>
+        <v>0.000391199654235397</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.00000243380370212876</v>
+        <v>-0.00000351243018759106</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.000787229954936519</v>
+        <v>-0.000803402986900625</v>
       </c>
       <c r="T17" t="n">
-        <v>0.00456897763249603</v>
+        <v>0.00454197794044986</v>
       </c>
       <c r="U17" t="n">
         <v>-0.0236686390532546</v>
@@ -9914,58 +9914,58 @@
         <v>182</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.155180408819488</v>
+        <v>-0.146098597321508</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0704392362390479</v>
+        <v>-0.106853103332387</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0701733905062461</v>
+        <v>-0.045035875014883</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0336503422550843</v>
+        <v>0.0331330651521939</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0330165520614026</v>
+        <v>-0.0321444046002037</v>
       </c>
       <c r="H18" t="n">
-        <v>0.15548823397721</v>
+        <v>0.15523638266418</v>
       </c>
       <c r="I18" t="n">
-        <v>0.133556670343981</v>
+        <v>0.133992873589289</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0518809110440165</v>
+        <v>0.0516869002107278</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.195673780318548</v>
+        <v>-0.195868415907951</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0333777733806651</v>
+        <v>-0.0336022673981286</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.0415451346397775</v>
+        <v>-0.0415433532749798</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0799813750750036</v>
+        <v>-0.0802693022407325</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00991778416813102</v>
+        <v>0.00959022173460539</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0705417343702199</v>
+        <v>0.0702187570589896</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.00636752633004312</v>
+        <v>0.00754348054097043</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.000787229954936297</v>
+        <v>-0.000803402986900625</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.00000200295544705575</v>
+        <v>-0.00000262112893634203</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0927454506115286</v>
+        <v>0.0931300538855212</v>
       </c>
       <c r="U18" t="n">
         <v>-0.0340236686390534</v>
@@ -9982,61 +9982,61 @@
         <v>182</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0377903194047191</v>
+        <v>0.00127418500834364</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0531928031023502</v>
+        <v>-0.0680516245312002</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.104501977031458</v>
+        <v>0.105454448823789</v>
       </c>
       <c r="F19" t="n">
-        <v>0.198426348663914</v>
+        <v>0.195579697741035</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.143374693109083</v>
+        <v>-0.141590242626165</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0776318485892443</v>
+        <v>-0.0793132201556802</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.155676648094921</v>
+        <v>-0.154987850270169</v>
       </c>
       <c r="J19" t="n">
-        <v>0.185961491358183</v>
+        <v>0.184804582151474</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.128842538955681</v>
+        <v>-0.128596974773106</v>
       </c>
       <c r="L19" t="n">
-        <v>0.022295459487705</v>
+        <v>0.021566491343692</v>
       </c>
       <c r="M19" t="n">
-        <v>0.11258464426269</v>
+        <v>0.114308750919909</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0773959095005679</v>
+        <v>-0.0773913330205598</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0110810851936668</v>
+        <v>0.0110833019938617</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0319776885937814</v>
+        <v>0.0319813763546126</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.0786362745779297</v>
+        <v>-0.0782738010958722</v>
       </c>
       <c r="R19" t="n">
-        <v>0.00456897763249609</v>
+        <v>0.00454197794044986</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0927454506115286</v>
+        <v>0.0931300538855212</v>
       </c>
       <c r="T19" t="n">
-        <v>0.00255646806709064</v>
+        <v>0.00255053987553078</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.00621248558428868</v>
+        <v>-0.00619107874870204</v>
       </c>
       <c r="V19" t="s">
         <v>200</v>
@@ -10050,37 +10050,37 @@
         <v>182</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0304360670713985</v>
+        <v>0.0352837046258004</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0206277031223413</v>
+        <v>0.00857443605540009</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0159170040923352</v>
+        <v>-0.0139812160170997</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0123661268365246</v>
+        <v>-0.0123686983327046</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.00747731560859598</v>
+        <v>-0.00747243071151515</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01776655267312</v>
+        <v>0.0177653544786039</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.0440141900752366</v>
+        <v>-0.0440117097944818</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.0689783726455168</v>
+        <v>-0.0689565312854697</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0603249532333685</v>
+        <v>0.060289220066313</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0228449595634847</v>
+        <v>-0.0228446807862436</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.057022898964074</v>
+        <v>-0.0570933410336087</v>
       </c>
       <c r="N20" t="n">
         <v>-0.0221893491124256</v>
@@ -10101,7 +10101,7 @@
         <v>-0.0340236686390534</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.00621248558428868</v>
+        <v>-0.00619107874870204</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>

--- a/frtaltfit.xlsx
+++ b/frtaltfit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -198,6 +198,9 @@
     <t xml:space="preserve">21</t>
   </si>
   <si>
+    <t xml:space="preserve">d3</t>
+  </si>
+  <si>
     <t xml:space="preserve">22</t>
   </si>
   <si>
@@ -213,6 +216,9 @@
     <t xml:space="preserve">25</t>
   </si>
   <si>
+    <t xml:space="preserve">d1</t>
+  </si>
+  <si>
     <t xml:space="preserve">26</t>
   </si>
   <si>
@@ -228,6 +234,9 @@
     <t xml:space="preserve">29</t>
   </si>
   <si>
+    <t xml:space="preserve">d2</t>
+  </si>
+  <si>
     <t xml:space="preserve">30</t>
   </si>
   <si>
@@ -439,6 +448,42 @@
   </si>
   <si>
     <t xml:space="preserve">a3*a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind1+d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind2+d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind3+d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind4+d2</t>
   </si>
   <si>
     <t xml:space="preserve">est.std</t>
@@ -1991,7 +2036,7 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F22" t="n">
         <v>0.0343285454654713</v>
@@ -2014,7 +2059,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -2049,7 +2094,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -2084,7 +2129,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -2096,7 +2141,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" t="n">
         <v>0.206971205523945</v>
@@ -2119,7 +2164,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -2131,7 +2176,7 @@
         <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F26" t="n">
         <v>-0.0684140841336949</v>
@@ -2154,7 +2199,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -2189,7 +2234,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -2224,7 +2269,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -2236,7 +2281,7 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" t="n">
         <v>-0.264281929109584</v>
@@ -2259,7 +2304,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -2271,7 +2316,7 @@
         <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F30" t="n">
         <v>0.175612882908921</v>
@@ -2294,7 +2339,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -2329,7 +2374,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -2364,7 +2409,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -2376,7 +2421,7 @@
         <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F33" t="n">
         <v>0.634013110490881</v>
@@ -2399,7 +2444,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -2434,7 +2479,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -2469,13 +2514,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
         <v>29</v>
@@ -2504,13 +2549,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
@@ -2539,13 +2584,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
@@ -2574,13 +2619,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -2609,13 +2654,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
         <v>21</v>
@@ -2644,13 +2689,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -2679,13 +2724,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
@@ -2714,13 +2759,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
@@ -2749,13 +2794,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s">
         <v>30</v>
@@ -2784,13 +2829,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
         <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
         <v>32</v>
@@ -2819,13 +2864,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
         <v>34</v>
@@ -2854,13 +2899,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
         <v>36</v>
@@ -2889,13 +2934,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
@@ -2924,13 +2969,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
         <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
         <v>41</v>
@@ -2959,13 +3004,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
         <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D50" t="s">
         <v>43</v>
@@ -2994,13 +3039,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
         <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D51" t="s">
         <v>46</v>
@@ -3029,13 +3074,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
@@ -3064,13 +3109,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
         <v>50</v>
@@ -3099,13 +3144,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D54" t="s">
         <v>52</v>
@@ -3134,13 +3179,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -3169,13 +3214,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D56" t="s">
         <v>20</v>
@@ -3204,13 +3249,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
         <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
         <v>29</v>
@@ -3239,13 +3284,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
         <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D58" t="s">
         <v>38</v>
@@ -3274,13 +3319,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B59" t="s">
         <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D59" t="s">
         <v>45</v>
@@ -3309,13 +3354,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
         <v>45</v>
@@ -3344,13 +3389,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
         <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D61" t="s">
         <v>58</v>
@@ -3375,13 +3420,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
         <v>0</v>
@@ -3410,13 +3455,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D63" t="s">
         <v>0</v>
@@ -3445,13 +3490,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D64" t="s">
         <v>0</v>
@@ -3480,13 +3525,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s">
         <v>0</v>
@@ -3515,13 +3560,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D66" t="s">
         <v>0</v>
@@ -3550,13 +3595,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D67" t="s">
         <v>0</v>
@@ -3585,13 +3630,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
         <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D68" t="s">
         <v>0</v>
@@ -3620,13 +3665,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
         <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D69" t="s">
         <v>0</v>
@@ -3655,13 +3700,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s">
         <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
         <v>0</v>
@@ -3690,13 +3735,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
         <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D71" t="s">
         <v>0</v>
@@ -3725,13 +3770,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B72" t="s">
         <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D72" t="s">
         <v>0</v>
@@ -3760,13 +3805,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
         <v>39</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D73" t="s">
         <v>0</v>
@@ -3795,13 +3840,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B74" t="s">
         <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D74" t="s">
         <v>0</v>
@@ -3830,13 +3875,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
         <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D75" t="s">
         <v>0</v>
@@ -3865,13 +3910,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s">
         <v>46</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
         <v>0</v>
@@ -3900,13 +3945,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D77" t="s">
         <v>0</v>
@@ -3935,13 +3980,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B78" t="s">
         <v>50</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D78" t="s">
         <v>0</v>
@@ -3970,13 +4015,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B79" t="s">
         <v>52</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D79" t="s">
         <v>0</v>
@@ -4005,13 +4050,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B80" t="s">
         <v>58</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D80" t="s">
         <v>0</v>
@@ -4036,13 +4081,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D81" t="s">
         <v>0</v>
@@ -4067,13 +4112,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D82" t="s">
         <v>0</v>
@@ -4098,13 +4143,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
         <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D83" t="s">
         <v>0</v>
@@ -4129,13 +4174,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B84" t="s">
         <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D84" t="s">
         <v>0</v>
@@ -4160,13 +4205,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
         <v>45</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D85" t="s">
         <v>0</v>
@@ -4191,19 +4236,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D86" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E86" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F86" t="n">
         <v>-0.104691486678704</v>
@@ -4226,19 +4271,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" t="s">
         <v>133</v>
       </c>
-      <c r="C87" t="s">
-        <v>130</v>
-      </c>
       <c r="D87" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E87" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F87" t="n">
         <v>-0.154498867819506</v>
@@ -4261,19 +4306,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D88" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E88" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F88" t="n">
         <v>0.131222457796284</v>
@@ -4296,19 +4341,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D89" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F89" t="n">
         <v>-0.167558207921298</v>
@@ -4327,6 +4372,146 @@
       </c>
       <c r="K89" t="n">
         <v>-0.0579822586184384</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" t="s">
+        <v>133</v>
+      </c>
+      <c r="D90" t="s">
+        <v>146</v>
+      </c>
+      <c r="E90" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.070362941213233</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0735529696083457</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-0.956629509153758</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.338754288955735</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-0.211108712229595</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.0739438742777271</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" t="s">
+        <v>133</v>
+      </c>
+      <c r="D91" t="s">
+        <v>149</v>
+      </c>
+      <c r="E91" t="s">
+        <v>148</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.120170322354035</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0735621989612528</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-1.63358795755048</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.102345398118687</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-0.269690029786373</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0199040631366129</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" t="s">
+        <v>133</v>
+      </c>
+      <c r="D92" t="s">
+        <v>152</v>
+      </c>
+      <c r="E92" t="s">
+        <v>151</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0628083736625888</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.104228836848366</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.602600734708029</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.54677433149096</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-0.152739027754664</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.260056876513423</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93" t="s">
+        <v>133</v>
+      </c>
+      <c r="D93" t="s">
+        <v>155</v>
+      </c>
+      <c r="E93" t="s">
+        <v>154</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.00805467498762319</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.165974172444944</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.0485296891014476</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.961294103828926</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-0.320889808324766</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.33421545687076</v>
       </c>
     </row>
   </sheetData>
@@ -4360,7 +4545,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -5092,7 +5277,7 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F22" t="n">
         <v>0.031241911830047</v>
@@ -5115,7 +5300,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -5150,7 +5335,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -5185,7 +5370,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -5197,7 +5382,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" t="n">
         <v>0.409020876845258</v>
@@ -5220,7 +5405,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -5232,7 +5417,7 @@
         <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F26" t="n">
         <v>-0.0428506845987357</v>
@@ -5255,7 +5440,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -5290,7 +5475,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -5325,7 +5510,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -5337,7 +5522,7 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" t="n">
         <v>-0.302982055490855</v>
@@ -5360,7 +5545,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -5372,7 +5557,7 @@
         <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F30" t="n">
         <v>0.0638090844122008</v>
@@ -5395,7 +5580,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -5430,7 +5615,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -5465,7 +5650,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -5477,7 +5662,7 @@
         <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F33" t="n">
         <v>0.200943952206295</v>
@@ -5500,7 +5685,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -5535,7 +5720,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -5570,13 +5755,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
         <v>29</v>
@@ -5605,13 +5790,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
@@ -5640,13 +5825,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
@@ -5675,13 +5860,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -5710,13 +5895,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
         <v>21</v>
@@ -5745,13 +5930,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -5780,13 +5965,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
@@ -5815,13 +6000,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
@@ -5850,13 +6035,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s">
         <v>30</v>
@@ -5885,13 +6070,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
         <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
         <v>32</v>
@@ -5920,13 +6105,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
         <v>34</v>
@@ -5955,13 +6140,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
         <v>36</v>
@@ -5990,13 +6175,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
@@ -6025,13 +6210,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
         <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
         <v>41</v>
@@ -6060,13 +6245,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
         <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D50" t="s">
         <v>43</v>
@@ -6095,13 +6280,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
         <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D51" t="s">
         <v>46</v>
@@ -6130,13 +6315,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
@@ -6165,13 +6350,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
         <v>50</v>
@@ -6200,13 +6385,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D54" t="s">
         <v>52</v>
@@ -6235,13 +6420,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -6270,13 +6455,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D56" t="s">
         <v>20</v>
@@ -6305,13 +6490,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
         <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
         <v>29</v>
@@ -6340,13 +6525,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
         <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D58" t="s">
         <v>38</v>
@@ -6371,13 +6556,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B59" t="s">
         <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D59" t="s">
         <v>45</v>
@@ -6402,13 +6587,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
         <v>45</v>
@@ -6437,13 +6622,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
         <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D61" t="s">
         <v>58</v>
@@ -6468,13 +6653,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
         <v>0</v>
@@ -6503,13 +6688,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D63" t="s">
         <v>0</v>
@@ -6538,13 +6723,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D64" t="s">
         <v>0</v>
@@ -6573,13 +6758,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s">
         <v>0</v>
@@ -6608,13 +6793,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D66" t="s">
         <v>0</v>
@@ -6643,13 +6828,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D67" t="s">
         <v>0</v>
@@ -6678,13 +6863,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
         <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D68" t="s">
         <v>0</v>
@@ -6713,13 +6898,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
         <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D69" t="s">
         <v>0</v>
@@ -6748,13 +6933,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s">
         <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
         <v>0</v>
@@ -6783,13 +6968,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
         <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D71" t="s">
         <v>0</v>
@@ -6818,13 +7003,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B72" t="s">
         <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D72" t="s">
         <v>0</v>
@@ -6853,13 +7038,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
         <v>39</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D73" t="s">
         <v>0</v>
@@ -6888,13 +7073,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B74" t="s">
         <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D74" t="s">
         <v>0</v>
@@ -6923,13 +7108,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
         <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D75" t="s">
         <v>0</v>
@@ -6958,13 +7143,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s">
         <v>46</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
         <v>0</v>
@@ -6993,13 +7178,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D77" t="s">
         <v>0</v>
@@ -7028,13 +7213,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B78" t="s">
         <v>50</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D78" t="s">
         <v>0</v>
@@ -7063,13 +7248,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B79" t="s">
         <v>52</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D79" t="s">
         <v>0</v>
@@ -7098,13 +7283,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B80" t="s">
         <v>58</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D80" t="s">
         <v>0</v>
@@ -7129,13 +7314,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D81" t="s">
         <v>0</v>
@@ -7160,13 +7345,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D82" t="s">
         <v>0</v>
@@ -7191,13 +7376,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
         <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D83" t="s">
         <v>0</v>
@@ -7222,13 +7407,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B84" t="s">
         <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D84" t="s">
         <v>0</v>
@@ -7253,13 +7438,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
         <v>45</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D85" t="s">
         <v>0</v>
@@ -7284,19 +7469,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D86" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E86" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F86" t="n">
         <v>-0.0952782051154034</v>
@@ -7319,19 +7504,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" t="s">
         <v>133</v>
       </c>
-      <c r="C87" t="s">
-        <v>130</v>
-      </c>
       <c r="D87" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E87" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F87" t="n">
         <v>-0.140607181015406</v>
@@ -7354,19 +7539,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D88" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E88" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F88" t="n">
         <v>0.0821902715281702</v>
@@ -7389,19 +7574,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D89" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F89" t="n">
         <v>-0.0608824116779194</v>
@@ -7420,6 +7605,146 @@
       </c>
       <c r="K89" t="n">
         <v>-0.0174540646980803</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" t="s">
+        <v>133</v>
+      </c>
+      <c r="D90" t="s">
+        <v>146</v>
+      </c>
+      <c r="E90" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.0640362932853564</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.067249303628811</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-0.952222399785889</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.340984203193639</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-0.195842506383225</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.067769919812512</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" t="s">
+        <v>133</v>
+      </c>
+      <c r="D91" t="s">
+        <v>149</v>
+      </c>
+      <c r="E91" t="s">
+        <v>148</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.109365269185359</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0664060848030762</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-1.6469163858956</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.0995752333827788</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-0.239518803753701</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0207882653829831</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" t="s">
+        <v>133</v>
+      </c>
+      <c r="D92" t="s">
+        <v>152</v>
+      </c>
+      <c r="E92" t="s">
+        <v>151</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0393395869294345</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.066797165948841</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.588940958356887</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.555900880714743</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-0.0915804525996392</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.170259626458508</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93" t="s">
+        <v>133</v>
+      </c>
+      <c r="D93" t="s">
+        <v>155</v>
+      </c>
+      <c r="E93" t="s">
+        <v>154</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.00292667273428138</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0604861951221285</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.0483857965999035</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.961408778718073</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-0.115624091266953</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.121477436735516</v>
       </c>
     </row>
   </sheetData>
@@ -7441,64 +7766,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="H1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="J1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="N1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="O1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="P1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="Q1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="R1" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="S1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="T1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="U1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
@@ -7563,7 +7888,7 @@
         <v>0.15850327762272</v>
       </c>
       <c r="U2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3">
@@ -7628,7 +7953,7 @@
         <v>0.17633680654815</v>
       </c>
       <c r="U3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4">
@@ -7693,7 +8018,7 @@
         <v>0.157472340277455</v>
       </c>
       <c r="U4" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
@@ -7758,7 +8083,7 @@
         <v>0.00201366874690579</v>
       </c>
       <c r="U5" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
@@ -7823,7 +8148,7 @@
         <v>0.00155527094820129</v>
       </c>
       <c r="U6" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7">
@@ -7888,7 +8213,7 @@
         <v>0.00146541475216523</v>
       </c>
       <c r="U7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8">
@@ -7953,7 +8278,7 @@
         <v>0.0011123015104581</v>
       </c>
       <c r="U8" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9">
@@ -8018,7 +8343,7 @@
         <v>0.0157020934156472</v>
       </c>
       <c r="U9" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10">
@@ -8083,7 +8408,7 @@
         <v>0.0299474663242194</v>
       </c>
       <c r="U10" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11">
@@ -8148,7 +8473,7 @@
         <v>0.0243239707270721</v>
       </c>
       <c r="U11" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12">
@@ -8213,7 +8538,7 @@
         <v>0.017152512631242</v>
       </c>
       <c r="U12" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
@@ -8278,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14">
@@ -8343,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15">
@@ -8408,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
@@ -8473,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
@@ -8538,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
@@ -8603,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
@@ -8668,7 +8993,7 @@
         <v>-0.0515012289436057</v>
       </c>
       <c r="U19" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
@@ -8733,7 +9058,7 @@
         <v>0.25</v>
       </c>
       <c r="U20" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -8755,67 +9080,67 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="F1" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="H1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="I1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="J1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="L1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="M1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="N1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="O1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="P1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="Q1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="R1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="S1" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="T1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="U1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="V1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
@@ -8823,7 +9148,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C2" t="n">
         <v>0.00835112488917966</v>
@@ -8883,7 +9208,7 @@
         <v>0.0352837046258004</v>
       </c>
       <c r="V2" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
@@ -8891,7 +9216,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C3" t="n">
         <v>-0.00929239921882896</v>
@@ -8951,7 +9276,7 @@
         <v>0.00857443605540009</v>
       </c>
       <c r="V3" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4">
@@ -8959,7 +9284,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C4" t="n">
         <v>0.0371142625761065</v>
@@ -9019,7 +9344,7 @@
         <v>-0.0139812160170997</v>
       </c>
       <c r="V4" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -9027,7 +9352,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C5" t="n">
         <v>-0.174307583909833</v>
@@ -9087,7 +9412,7 @@
         <v>-0.0123686983327046</v>
       </c>
       <c r="V5" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6">
@@ -9095,7 +9420,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C6" t="n">
         <v>0.14566077541476</v>
@@ -9155,7 +9480,7 @@
         <v>-0.00747243071151515</v>
       </c>
       <c r="V6" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7">
@@ -9163,7 +9488,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C7" t="n">
         <v>0.180410259914102</v>
@@ -9223,7 +9548,7 @@
         <v>0.0177653544786039</v>
       </c>
       <c r="V7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8">
@@ -9231,7 +9556,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C8" t="n">
         <v>0.152389268951239</v>
@@ -9291,7 +9616,7 @@
         <v>-0.0440117097944818</v>
       </c>
       <c r="V8" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9">
@@ -9299,7 +9624,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C9" t="n">
         <v>-0.216044913052334</v>
@@ -9359,7 +9684,7 @@
         <v>-0.0689565312854697</v>
       </c>
       <c r="V9" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10">
@@ -9367,7 +9692,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C10" t="n">
         <v>0.153571133473895</v>
@@ -9427,7 +9752,7 @@
         <v>0.060289220066313</v>
       </c>
       <c r="V10" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11">
@@ -9435,7 +9760,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C11" t="n">
         <v>-0.214196895610397</v>
@@ -9495,7 +9820,7 @@
         <v>-0.0228446807862436</v>
       </c>
       <c r="V11" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12">
@@ -9503,7 +9828,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C12" t="n">
         <v>0.0501791259707431</v>
@@ -9563,7 +9888,7 @@
         <v>-0.0570933410336087</v>
       </c>
       <c r="V12" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13">
@@ -9571,7 +9896,7 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C13" t="n">
         <v>0.0410783601394524</v>
@@ -9631,7 +9956,7 @@
         <v>-0.0221893491124256</v>
       </c>
       <c r="V13" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14">
@@ -9639,7 +9964,7 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C14" t="n">
         <v>0.0186358895073149</v>
@@ -9699,7 +10024,7 @@
         <v>-0.0162721893491122</v>
       </c>
       <c r="V14" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15">
@@ -9707,7 +10032,7 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C15" t="n">
         <v>-0.0426875562964098</v>
@@ -9767,7 +10092,7 @@
         <v>-0.00147928994082847</v>
       </c>
       <c r="V15" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16">
@@ -9775,7 +10100,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C16" t="n">
         <v>0.0133489329419301</v>
@@ -9835,7 +10160,7 @@
         <v>-0.0355029585798816</v>
       </c>
       <c r="V16" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17">
@@ -9843,7 +10168,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C17" t="n">
         <v>-0.0805316804673168</v>
@@ -9903,7 +10228,7 @@
         <v>-0.0236686390532546</v>
       </c>
       <c r="V17" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18">
@@ -9911,7 +10236,7 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C18" t="n">
         <v>-0.146098597321508</v>
@@ -9971,7 +10296,7 @@
         <v>-0.0340236686390534</v>
       </c>
       <c r="V18" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19">
@@ -9979,7 +10304,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C19" t="n">
         <v>0.00127418500834364</v>
@@ -10039,7 +10364,7 @@
         <v>-0.00619107874870204</v>
       </c>
       <c r="V19" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20">
@@ -10047,7 +10372,7 @@
         <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C20" t="n">
         <v>0.0352837046258004</v>
@@ -10107,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -10129,39 +10454,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6">
@@ -10169,407 +10494,407 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="B14" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="B34" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="B36" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B38" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="B39" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="B40" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="B41" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="B42" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="B43" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="B44" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="B45" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="B46" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B47" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B48" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="B49" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="B50" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="B51" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="B52" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="B53" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B54" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="B55" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B56" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
